--- a/RUDN/Correlations/deep.Corr_in_IBD.nan.xlsx
+++ b/RUDN/Correlations/deep.Corr_in_IBD.nan.xlsx
@@ -14,7 +14,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+  <si>
+    <t>FP.CPI.TOTL.ZG:IBD</t>
+  </si>
+  <si>
+    <t>IC.REG.COST.PC.FE.ZS:IBD</t>
+  </si>
+  <si>
+    <t>IC.REG.COST.PC.MA.ZS:IBD</t>
+  </si>
   <si>
     <t>IC.REG.DURS.FE:IBD</t>
   </si>
@@ -22,15 +31,159 @@
     <t>IC.REG.DURS.MA:IBD</t>
   </si>
   <si>
+    <t>IC.REG.PROC.FE:IBD</t>
+  </si>
+  <si>
     <t>IC.REG.PROC.MA:IBD</t>
   </si>
   <si>
+    <t>IT.CEL.SETS.P2:IBD</t>
+  </si>
+  <si>
+    <t>IT.MLT.MAIN.P2:IBD</t>
+  </si>
+  <si>
+    <t>IT.NET.USER.P2:IBD</t>
+  </si>
+  <si>
+    <t>NE.TRD.GNFS.ZS:IBD</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.CD:IBD</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.KD.ZG:IBD</t>
+  </si>
+  <si>
+    <t>NY.GDP.PCAP.CD:IBD</t>
+  </si>
+  <si>
+    <t>NY.GNP.ATLS.CD:IBD</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.CD:IBD</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.PP.CD:IBD</t>
+  </si>
+  <si>
+    <t>SG.GEN.PARL.ZS:IBD</t>
+  </si>
+  <si>
+    <t>SH.ANM.ALLW.ZS:IBD</t>
+  </si>
+  <si>
+    <t>SH.DYN.MORT:IBD</t>
+  </si>
+  <si>
+    <t>SH.IMM.IDPT:IBD</t>
+  </si>
+  <si>
+    <t>SH.IMM.MEAS:IBD</t>
+  </si>
+  <si>
+    <t>SL.EMP.1524.SP.FE.ZS:IBD</t>
+  </si>
+  <si>
+    <t>SL.EMP.1524.SP.MA.ZS:IBD</t>
+  </si>
+  <si>
+    <t>SL.EMP.1524.SP.ZS:IBD</t>
+  </si>
+  <si>
+    <t>SL.EMP.TOTL.SP.FE.ZS:IBD</t>
+  </si>
+  <si>
+    <t>SL.EMP.TOTL.SP.ZS:IBD</t>
+  </si>
+  <si>
+    <t>SL.GDP.PCAP.EM.KD:IBD</t>
+  </si>
+  <si>
+    <t>SL.TLF.ACTI.1524.FE.ZS:IBD</t>
+  </si>
+  <si>
+    <t>SL.TLF.ACTI.1524.MA.ZS:IBD</t>
+  </si>
+  <si>
+    <t>SL.TLF.CACT.FE.ZS:IBD</t>
+  </si>
+  <si>
+    <t>SL.TLF.CACT.FM.ZS:IBD</t>
+  </si>
+  <si>
+    <t>SL.TLF.CACT.MA.ZS:IBD</t>
+  </si>
+  <si>
+    <t>SL.TLF.TOTL.FE.IN:IBD</t>
+  </si>
+  <si>
+    <t>SL.TLF.TOTL.IN:IBD</t>
+  </si>
+  <si>
+    <t>SL.UEM.1524.FM.ZS:IBD</t>
+  </si>
+  <si>
+    <t>SP.DYN.IMRT.IN:IBD</t>
+  </si>
+  <si>
+    <t>SP.POP.0014.FE.IN:IBD</t>
+  </si>
+  <si>
+    <t>SP.POP.0014.TO.ZS:IBD</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.FE.IN:IBD</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.MA.IN:IBD</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.TO.ZS:IBD</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.TO:IBD</t>
+  </si>
+  <si>
+    <t>SP.POP.65UP.FE.IN:IBD</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL.FE.IN:IBD</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL:IBD</t>
+  </si>
+  <si>
+    <t>FP.CPI.TOTL.ZG:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>FP.CPI.TOTL.ZG:IBD:p-value</t>
+  </si>
+  <si>
+    <t>IC.REG.COST.PC.FE.ZS:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>IC.REG.COST.PC.FE.ZS:IBD:p-value</t>
+  </si>
+  <si>
+    <t>IC.REG.COST.PC.MA.ZS:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>IC.REG.COST.PC.MA.ZS:IBD:p-value</t>
+  </si>
+  <si>
     <t>IC.REG.DURS.FE:IBD:cor-value</t>
   </si>
   <si>
     <t>IC.REG.DURS.FE:IBD:p-value</t>
   </si>
   <si>
+    <t>IC.REG.DURS.MA:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>IC.REG.DURS.MA:IBD:p-value</t>
+  </si>
+  <si>
     <t>IC.REG.PROC.FE:IBD:cor-value</t>
   </si>
   <si>
@@ -41,6 +194,240 @@
   </si>
   <si>
     <t>IC.REG.PROC.MA:IBD:p-value</t>
+  </si>
+  <si>
+    <t>IT.CEL.SETS.P2:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>IT.CEL.SETS.P2:IBD:p-value</t>
+  </si>
+  <si>
+    <t>IT.MLT.MAIN.P2:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>IT.MLT.MAIN.P2:IBD:p-value</t>
+  </si>
+  <si>
+    <t>IT.NET.USER.P2:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>IT.NET.USER.P2:IBD:p-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.CD:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.CD:IBD:p-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.KD.ZG:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.KD.ZG:IBD:p-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.PCAP.CD:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.PCAP.CD:IBD:p-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.ATLS.CD:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.ATLS.CD:IBD:p-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.CD:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.CD:IBD:p-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.PP.CD:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.PP.CD:IBD:p-value</t>
+  </si>
+  <si>
+    <t>SG.GEN.PARL.ZS:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>SG.GEN.PARL.ZS:IBD:p-value</t>
+  </si>
+  <si>
+    <t>SH.ANM.ALLW.ZS:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>SH.ANM.ALLW.ZS:IBD:p-value</t>
+  </si>
+  <si>
+    <t>SH.DYN.MORT:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>SH.DYN.MORT:IBD:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.IDPT:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.IDPT:IBD:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.MEAS:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.MEAS:IBD:p-value</t>
+  </si>
+  <si>
+    <t>SL.EMP.1524.SP.FE.ZS:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>SL.EMP.1524.SP.FE.ZS:IBD:p-value</t>
+  </si>
+  <si>
+    <t>SL.EMP.1524.SP.MA.ZS:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>SL.EMP.1524.SP.MA.ZS:IBD:p-value</t>
+  </si>
+  <si>
+    <t>SL.EMP.1524.SP.ZS:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>SL.EMP.1524.SP.ZS:IBD:p-value</t>
+  </si>
+  <si>
+    <t>SL.EMP.TOTL.SP.FE.ZS:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>SL.EMP.TOTL.SP.FE.ZS:IBD:p-value</t>
+  </si>
+  <si>
+    <t>SL.EMP.TOTL.SP.ZS:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>SL.EMP.TOTL.SP.ZS:IBD:p-value</t>
+  </si>
+  <si>
+    <t>SL.GDP.PCAP.EM.KD:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>SL.GDP.PCAP.EM.KD:IBD:p-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.ACTI.1524.FE.ZS:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.ACTI.1524.FE.ZS:IBD:p-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.ACTI.1524.MA.ZS:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.ACTI.1524.MA.ZS:IBD:p-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.CACT.FE.ZS:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.CACT.FE.ZS:IBD:p-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.CACT.FM.ZS:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.CACT.FM.ZS:IBD:p-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.CACT.MA.ZS:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.CACT.MA.ZS:IBD:p-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.TOTL.FE.IN:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.TOTL.FE.IN:IBD:p-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.TOTL.IN:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.TOTL.IN:IBD:p-value</t>
+  </si>
+  <si>
+    <t>SL.UEM.1524.FM.ZS:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>SL.UEM.1524.FM.ZS:IBD:p-value</t>
+  </si>
+  <si>
+    <t>SP.DYN.IMRT.IN:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>SP.DYN.IMRT.IN:IBD:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.0014.FE.IN:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.0014.FE.IN:IBD:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.0014.TO.ZS:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.0014.TO.ZS:IBD:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.FE.IN:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.FE.IN:IBD:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.MA.IN:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.MA.IN:IBD:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.TO.ZS:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.TO.ZS:IBD:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.TO:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.TO:IBD:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.65UP.FE.IN:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.65UP.FE.IN:IBD:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.DPND:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.DPND:IBD:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL.FE.IN:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL.FE.IN:IBD:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL:IBD:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL:IBD:p-value</t>
   </si>
 </sst>
 </file>
@@ -398,13 +785,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:AU93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:47">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,71 +801,6906 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47">
       <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
+        <v>46</v>
+      </c>
+      <c r="E2">
+        <v>0.4727437503241372</v>
+      </c>
+      <c r="F2">
+        <v>0.4725803923315472</v>
+      </c>
+      <c r="G2">
+        <v>0.3908580768262274</v>
+      </c>
+      <c r="H2">
+        <v>0.388948585284807</v>
+      </c>
+      <c r="I2">
+        <v>-0.3951971963989651</v>
+      </c>
+      <c r="J2">
+        <v>0.6823180298799426</v>
+      </c>
+      <c r="K2">
+        <v>-0.5036179258352568</v>
+      </c>
+      <c r="L2">
+        <v>0.7137884984764987</v>
+      </c>
+      <c r="S2">
+        <v>-0.5139195332222585</v>
+      </c>
+      <c r="T2">
+        <v>-0.560558648750442</v>
+      </c>
+      <c r="U2">
+        <v>0.4019693270686009</v>
+      </c>
+      <c r="Z2">
+        <v>0.4653367210340841</v>
+      </c>
+      <c r="AB2">
+        <v>0.4238165551059488</v>
+      </c>
+      <c r="AC2">
+        <v>-0.4192624487654454</v>
+      </c>
+      <c r="AD2">
+        <v>0.4209427587877098</v>
+      </c>
+      <c r="AE2">
+        <v>0.4231685956403106</v>
+      </c>
+      <c r="AF2">
+        <v>0.3720271250626881</v>
+      </c>
+      <c r="AG2">
+        <v>0.3859053626969904</v>
+      </c>
+      <c r="AH2">
+        <v>0.3171585989809978</v>
+      </c>
+      <c r="AI2">
+        <v>-0.426584505784058</v>
+      </c>
+      <c r="AJ2">
+        <v>-0.4360558086806791</v>
+      </c>
+      <c r="AK2">
+        <v>0.2806367938566433</v>
+      </c>
+      <c r="AL2">
+        <v>0.4085416078822646</v>
+      </c>
+      <c r="AM2">
+        <v>-0.2412415232268746</v>
+      </c>
+      <c r="AN2">
+        <v>0.3186531281128154</v>
+      </c>
+      <c r="AO2">
+        <v>-0.4038982494909525</v>
+      </c>
+      <c r="AP2">
+        <v>-0.4083570654045445</v>
+      </c>
+      <c r="AQ2">
+        <v>-0.1925164759621734</v>
+      </c>
+      <c r="AR2">
+        <v>-0.4061884664232153</v>
+      </c>
+      <c r="AS2">
+        <v>-0.4967244014332838</v>
+      </c>
+      <c r="AT2">
+        <v>-0.4536325546617203</v>
+      </c>
+      <c r="AU2">
+        <v>-0.4520496075142666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47">
+      <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3">
+        <v>0.08780202453417943</v>
+      </c>
+      <c r="F3">
+        <v>0.08792693367425812</v>
+      </c>
+      <c r="G3">
+        <v>0.16702541747467</v>
+      </c>
+      <c r="H3">
+        <v>0.1692917706768022</v>
+      </c>
+      <c r="I3">
+        <v>0.161949202611943</v>
+      </c>
+      <c r="J3">
+        <v>0.007177120097360575</v>
+      </c>
+      <c r="K3">
+        <v>0.06635880566466837</v>
+      </c>
+      <c r="L3">
+        <v>0.004142488411251925</v>
+      </c>
+      <c r="S3">
+        <v>0.0601216276682403</v>
+      </c>
+      <c r="T3">
+        <v>0.03705555785943336</v>
+      </c>
+      <c r="U3">
+        <v>0.1542305263439818</v>
+      </c>
+      <c r="Z3">
+        <v>0.0935913749324379</v>
+      </c>
+      <c r="AB3">
+        <v>0.1309983743126553</v>
+      </c>
+      <c r="AC3">
+        <v>0.1356335154289185</v>
+      </c>
+      <c r="AD3">
+        <v>0.1339107047996067</v>
+      </c>
+      <c r="AE3">
+        <v>0.1316512668921311</v>
+      </c>
+      <c r="AF3">
+        <v>0.1902504849190483</v>
+      </c>
+      <c r="AG3">
+        <v>0.1729449232986361</v>
+      </c>
+      <c r="AH3">
+        <v>0.2692045134331849</v>
+      </c>
+      <c r="AI3">
+        <v>0.1282338871209928</v>
+      </c>
+      <c r="AJ3">
+        <v>0.1190728925357493</v>
+      </c>
+      <c r="AK3">
+        <v>0.3311158476675202</v>
+      </c>
+      <c r="AL3">
+        <v>0.1469754257236084</v>
+      </c>
+      <c r="AM3">
+        <v>0.4060506858055808</v>
+      </c>
+      <c r="AN3">
+        <v>0.2668296363266719</v>
+      </c>
+      <c r="AO3">
+        <v>0.1520772150288283</v>
+      </c>
+      <c r="AP3">
+        <v>0.1471759908850813</v>
+      </c>
+      <c r="AQ3">
+        <v>0.5096493423957726</v>
+      </c>
+      <c r="AR3">
+        <v>0.1495464853653858</v>
+      </c>
+      <c r="AS3">
+        <v>0.07078228836640103</v>
+      </c>
+      <c r="AT3">
+        <v>0.1032720903906357</v>
+      </c>
+      <c r="AU3">
+        <v>0.1046323389126878</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>0.2331194341450003</v>
+      </c>
+      <c r="D4">
+        <v>0.9999999987580532</v>
+      </c>
+      <c r="E4">
+        <v>0.8756122408657101</v>
+      </c>
+      <c r="F4">
+        <v>0.8758530458221809</v>
+      </c>
+      <c r="G4">
+        <v>0.9629552250740094</v>
+      </c>
+      <c r="H4">
+        <v>0.9640841906987901</v>
+      </c>
+      <c r="I4">
+        <v>-0.9501243364038437</v>
+      </c>
+      <c r="J4">
+        <v>0.4215057345979505</v>
+      </c>
+      <c r="K4">
+        <v>-0.8805349514533808</v>
+      </c>
+      <c r="L4">
+        <v>0.5812016582510993</v>
+      </c>
+      <c r="M4">
+        <v>-0.9345551761136347</v>
+      </c>
+      <c r="N4">
+        <v>0.4778856407231541</v>
+      </c>
+      <c r="O4">
+        <v>-0.9399849564197664</v>
+      </c>
+      <c r="P4">
+        <v>-0.9223528727781396</v>
+      </c>
+      <c r="Q4">
+        <v>-0.9308162782029133</v>
+      </c>
+      <c r="R4">
+        <v>-0.9278950745099539</v>
+      </c>
+      <c r="S4">
+        <v>-0.8860130680105782</v>
+      </c>
+      <c r="T4">
+        <v>-0.1674018273682484</v>
+      </c>
+      <c r="U4">
+        <v>0.9542594689370251</v>
+      </c>
+      <c r="V4">
+        <v>-0.9463874169196658</v>
+      </c>
+      <c r="W4">
+        <v>-0.9731395701864132</v>
+      </c>
+      <c r="X4">
+        <v>0.9216094320991599</v>
+      </c>
+      <c r="Y4">
+        <v>0.9082840819429726</v>
+      </c>
+      <c r="Z4">
+        <v>0.9154416613812837</v>
+      </c>
+      <c r="AA4">
+        <v>0.9184573139866644</v>
+      </c>
+      <c r="AB4">
+        <v>0.9202962242152634</v>
+      </c>
+      <c r="AC4">
+        <v>-0.931569241780928</v>
+      </c>
+      <c r="AD4">
+        <v>0.9390029559854856</v>
+      </c>
+      <c r="AE4">
+        <v>0.9375264038512126</v>
+      </c>
+      <c r="AF4">
+        <v>0.9415660773466239</v>
+      </c>
+      <c r="AG4">
+        <v>0.9349827342164886</v>
+      </c>
+      <c r="AH4">
+        <v>0.9708555623594087</v>
+      </c>
+      <c r="AI4">
+        <v>-0.888717655035662</v>
+      </c>
+      <c r="AJ4">
+        <v>-0.9263490106988855</v>
+      </c>
+      <c r="AL4">
+        <v>0.9520369776703242</v>
+      </c>
+      <c r="AM4">
+        <v>0.753908293803689</v>
+      </c>
+      <c r="AN4">
+        <v>0.9862235998574445</v>
+      </c>
+      <c r="AO4">
+        <v>-0.9546214862951482</v>
+      </c>
+      <c r="AP4">
+        <v>-0.9523579661975363</v>
+      </c>
+      <c r="AQ4">
+        <v>-0.9896438663012243</v>
+      </c>
+      <c r="AR4">
+        <v>-0.9534686017195041</v>
+      </c>
+      <c r="AS4">
+        <v>-0.8665137298520925</v>
+      </c>
+      <c r="AT4">
+        <v>-0.9217715592399472</v>
+      </c>
+      <c r="AU4">
+        <v>-0.9230132350634126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47">
+      <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5">
+        <v>0.4225106424493807</v>
+      </c>
+      <c r="D5">
+        <v>5.297974761551161e-53</v>
+      </c>
+      <c r="E5">
+        <v>4.069010868457588e-05</v>
+      </c>
+      <c r="F5">
+        <v>4.02415700927605e-05</v>
+      </c>
+      <c r="G5">
+        <v>3.44449660050101e-08</v>
+      </c>
+      <c r="H5">
+        <v>2.867766819933572e-08</v>
+      </c>
+      <c r="I5">
+        <v>1.995025069491611e-07</v>
+      </c>
+      <c r="J5">
+        <v>0.1333367895829718</v>
+      </c>
+      <c r="K5">
+        <v>3.229075506098089e-05</v>
+      </c>
+      <c r="L5">
+        <v>0.02927156530973988</v>
+      </c>
+      <c r="M5">
+        <v>9.841111156004223e-07</v>
+      </c>
+      <c r="N5">
+        <v>0.08393352828829748</v>
+      </c>
+      <c r="O5">
+        <v>5.922886629334537e-07</v>
+      </c>
+      <c r="P5">
+        <v>2.672155519128925e-06</v>
+      </c>
+      <c r="Q5">
+        <v>1.362204014630314e-06</v>
+      </c>
+      <c r="R5">
+        <v>1.734652021906231e-06</v>
+      </c>
+      <c r="S5">
+        <v>2.466634669823767e-05</v>
+      </c>
+      <c r="T5">
+        <v>0.5673055805375029</v>
+      </c>
+      <c r="U5">
+        <v>1.197692141026405e-07</v>
+      </c>
+      <c r="V5">
+        <v>3.052579486012511e-07</v>
+      </c>
+      <c r="W5">
+        <v>5.1172884684308e-09</v>
+      </c>
+      <c r="X5">
+        <v>2.82474073200586e-06</v>
+      </c>
+      <c r="Y5">
+        <v>7.034551826919181e-06</v>
+      </c>
+      <c r="Z5">
+        <v>4.38940389774521e-06</v>
+      </c>
+      <c r="AA5">
+        <v>3.553674430832003e-06</v>
+      </c>
+      <c r="AB5">
+        <v>3.111773648207577e-06</v>
+      </c>
+      <c r="AC5">
+        <v>1.277752861695377e-06</v>
+      </c>
+      <c r="AD5">
+        <v>6.514623825109298e-07</v>
+      </c>
+      <c r="AE5">
+        <v>7.495618623416458e-07</v>
+      </c>
+      <c r="AF5">
+        <v>5.063715393357135e-07</v>
+      </c>
+      <c r="AG5">
+        <v>9.470498802653202e-07</v>
+      </c>
+      <c r="AH5">
+        <v>8.308967396686887e-09</v>
+      </c>
+      <c r="AI5">
+        <v>2.148645574895462e-05</v>
+      </c>
+      <c r="AJ5">
+        <v>1.963420103059207e-06</v>
+      </c>
+      <c r="AL5">
+        <v>1.584419697472003e-07</v>
+      </c>
+      <c r="AM5">
+        <v>0.001842204020141306</v>
+      </c>
+      <c r="AN5">
+        <v>9.58188470422852e-11</v>
+      </c>
+      <c r="AO5">
+        <v>1.142832589765037e-07</v>
+      </c>
+      <c r="AP5">
+        <v>1.522920257016758e-07</v>
+      </c>
+      <c r="AQ5">
+        <v>1.741889084970063e-11</v>
+      </c>
+      <c r="AR5">
+        <v>1.325150019990902e-07</v>
+      </c>
+      <c r="AS5">
+        <v>6.088732875400231e-05</v>
+      </c>
+      <c r="AT5">
+        <v>2.790868799512763e-06</v>
+      </c>
+      <c r="AU5">
+        <v>2.542374472933789e-06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47">
+      <c r="A6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>0.2331242003354477</v>
+      </c>
+      <c r="E6">
+        <v>0.8756102951776173</v>
+      </c>
+      <c r="F6">
+        <v>0.8758511157560052</v>
+      </c>
+      <c r="G6">
+        <v>0.9629526925705678</v>
+      </c>
+      <c r="H6">
+        <v>0.9640818165634638</v>
+      </c>
+      <c r="I6">
+        <v>-0.9501199788971006</v>
+      </c>
+      <c r="J6">
+        <v>0.4214993001671435</v>
+      </c>
+      <c r="K6">
+        <v>-0.8805322824953011</v>
+      </c>
+      <c r="L6">
+        <v>0.5811885195564436</v>
+      </c>
+      <c r="M6">
+        <v>-0.9345527360104326</v>
+      </c>
+      <c r="N6">
+        <v>0.4778700715086129</v>
+      </c>
+      <c r="O6">
+        <v>-0.939982357708265</v>
+      </c>
+      <c r="P6">
+        <v>-0.9223508672204946</v>
+      </c>
+      <c r="Q6">
+        <v>-0.9308141255139479</v>
+      </c>
+      <c r="R6">
+        <v>-0.927892938340481</v>
+      </c>
+      <c r="S6">
+        <v>-0.8860128952954049</v>
+      </c>
+      <c r="T6">
+        <v>-0.1674054482090101</v>
+      </c>
+      <c r="U6">
+        <v>0.954256609014511</v>
+      </c>
+      <c r="V6">
+        <v>-0.946378886081747</v>
+      </c>
+      <c r="W6">
+        <v>-0.973132673941787</v>
+      </c>
+      <c r="X6">
+        <v>0.9216044068510617</v>
+      </c>
+      <c r="Y6">
+        <v>0.9082795962696478</v>
+      </c>
+      <c r="Z6">
+        <v>0.9154368739588776</v>
+      </c>
+      <c r="AA6">
+        <v>0.9184487198550487</v>
+      </c>
+      <c r="AB6">
+        <v>0.9202877137840679</v>
+      </c>
+      <c r="AC6">
+        <v>-0.9315668252131041</v>
+      </c>
+      <c r="AD6">
+        <v>0.9389988914038114</v>
+      </c>
+      <c r="AE6">
+        <v>0.9375225326334312</v>
+      </c>
+      <c r="AF6">
+        <v>0.9415590925316832</v>
+      </c>
+      <c r="AG6">
+        <v>0.9349753341556359</v>
+      </c>
+      <c r="AH6">
+        <v>0.9708504447124372</v>
+      </c>
+      <c r="AI6">
+        <v>-0.8887214757915083</v>
+      </c>
+      <c r="AJ6">
+        <v>-0.9263487811328718</v>
+      </c>
+      <c r="AL6">
+        <v>0.9520343886522949</v>
+      </c>
+      <c r="AM6">
+        <v>0.7539070009610468</v>
+      </c>
+      <c r="AN6">
+        <v>0.9862214898072729</v>
+      </c>
+      <c r="AO6">
+        <v>-0.9546191444934344</v>
+      </c>
+      <c r="AP6">
+        <v>-0.9523556477772483</v>
+      </c>
+      <c r="AQ6">
+        <v>-0.9896413026858487</v>
+      </c>
+      <c r="AR6">
+        <v>-0.9534662718730498</v>
+      </c>
+      <c r="AS6">
+        <v>-0.8665123653340188</v>
+      </c>
+      <c r="AT6">
+        <v>-0.9217694070769973</v>
+      </c>
+      <c r="AU6">
+        <v>-0.9230110661217484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47">
+      <c r="A7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7">
+        <v>0.422500885220736</v>
+      </c>
+      <c r="E7">
+        <v>4.069374939267129e-05</v>
+      </c>
+      <c r="F7">
+        <v>4.024514904283927e-05</v>
+      </c>
+      <c r="G7">
+        <v>3.445890729327926e-08</v>
+      </c>
+      <c r="H7">
+        <v>2.868889608501617e-08</v>
+      </c>
+      <c r="I7">
+        <v>1.996052089051765e-07</v>
+      </c>
+      <c r="J7">
+        <v>0.1333433396981552</v>
+      </c>
+      <c r="K7">
+        <v>3.2294889999959e-05</v>
+      </c>
+      <c r="L7">
+        <v>0.0292760946151068</v>
+      </c>
+      <c r="M7">
+        <v>9.843260088125294e-07</v>
+      </c>
+      <c r="N7">
+        <v>0.08394505786187263</v>
+      </c>
+      <c r="O7">
+        <v>5.924391812447078e-07</v>
+      </c>
+      <c r="P7">
+        <v>2.672557817103989e-06</v>
+      </c>
+      <c r="Q7">
+        <v>1.362451888925561e-06</v>
+      </c>
+      <c r="R7">
+        <v>1.734952215601965e-06</v>
+      </c>
+      <c r="S7">
+        <v>2.46665613943194e-05</v>
+      </c>
+      <c r="T7">
+        <v>0.5672970773755339</v>
+      </c>
+      <c r="U7">
+        <v>1.198134048117392e-07</v>
+      </c>
+      <c r="V7">
+        <v>3.055437952257292e-07</v>
+      </c>
+      <c r="W7">
+        <v>5.125099973418353e-09</v>
+      </c>
+      <c r="X7">
+        <v>2.825795998628378e-06</v>
+      </c>
+      <c r="Y7">
+        <v>7.036546217375538e-06</v>
+      </c>
+      <c r="Z7">
+        <v>4.390848607576428e-06</v>
+      </c>
+      <c r="AA7">
+        <v>3.555854602062814e-06</v>
+      </c>
+      <c r="AB7">
+        <v>3.113709141057162e-06</v>
+      </c>
+      <c r="AC7">
+        <v>1.278016821262302e-06</v>
+      </c>
+      <c r="AD7">
+        <v>6.517170746251582e-07</v>
+      </c>
+      <c r="AE7">
+        <v>7.498342118901828e-07</v>
+      </c>
+      <c r="AF7">
+        <v>5.067270561409207e-07</v>
+      </c>
+      <c r="AG7">
+        <v>9.476813855134979e-07</v>
+      </c>
+      <c r="AH7">
+        <v>8.317633099939284e-09</v>
+      </c>
+      <c r="AI7">
+        <v>2.148221371620163e-05</v>
+      </c>
+      <c r="AJ7">
+        <v>1.963455828032451e-06</v>
+      </c>
+      <c r="AL7">
+        <v>1.584923962003535e-07</v>
+      </c>
+      <c r="AM7">
+        <v>0.001842256448122677</v>
+      </c>
+      <c r="AN7">
+        <v>9.590650081782948e-11</v>
+      </c>
+      <c r="AO7">
+        <v>1.143180656722537e-07</v>
+      </c>
+      <c r="AP7">
+        <v>1.523357261299269e-07</v>
+      </c>
+      <c r="AQ7">
+        <v>1.744468246203167e-11</v>
+      </c>
+      <c r="AR7">
+        <v>1.325541433968872e-07</v>
+      </c>
+      <c r="AS7">
+        <v>6.089087543233962e-05</v>
+      </c>
+      <c r="AT7">
+        <v>2.79131623379191e-06</v>
+      </c>
+      <c r="AU7">
+        <v>2.542792074600528e-06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47">
+      <c r="A8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8">
         <v>0.9999997735269657</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
+      <c r="I8">
+        <v>-0.9556105868093382</v>
+      </c>
+      <c r="J8">
+        <v>0.7793430944807545</v>
+      </c>
+      <c r="K8">
+        <v>-0.9790271571793878</v>
+      </c>
+      <c r="L8">
+        <v>0.7775265754741704</v>
+      </c>
+      <c r="U8">
+        <v>0.9629164045474303</v>
+      </c>
+      <c r="Z8">
+        <v>0.9749968306197705</v>
+      </c>
+      <c r="AB8">
+        <v>0.9487854297205017</v>
+      </c>
+      <c r="AC8">
+        <v>-0.9738637139852928</v>
+      </c>
+      <c r="AL8">
+        <v>0.9655848808312797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47">
+      <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9">
         <v>1.948008195983894e-39</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
+      <c r="I9">
+        <v>1.003446922519856e-07</v>
+      </c>
+      <c r="J9">
+        <v>0.001016444291443628</v>
+      </c>
+      <c r="K9">
+        <v>1.174456782331982e-09</v>
+      </c>
+      <c r="L9">
+        <v>0.001063158342211477</v>
+      </c>
+      <c r="U9">
+        <v>3.465918493739305e-08</v>
+      </c>
+      <c r="Z9">
+        <v>3.342556205883938e-09</v>
+      </c>
+      <c r="AB9">
+        <v>2.331880189811165e-07</v>
+      </c>
+      <c r="AC9">
+        <v>4.350171576406921e-09</v>
+      </c>
+      <c r="AL9">
+        <v>2.227110038495895e-08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47">
+      <c r="A10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10">
+        <v>-0.9556867597256361</v>
+      </c>
+      <c r="J10">
+        <v>0.7790353087760968</v>
+      </c>
+      <c r="K10">
+        <v>-0.9790352911709587</v>
+      </c>
+      <c r="L10">
+        <v>0.777303618165563</v>
+      </c>
+      <c r="U10">
+        <v>0.9630057215531813</v>
+      </c>
+      <c r="Z10">
+        <v>0.9750226519098012</v>
+      </c>
+      <c r="AB10">
+        <v>0.9488134010775756</v>
+      </c>
+      <c r="AC10">
+        <v>-0.9739249227848955</v>
+      </c>
+      <c r="AL10">
+        <v>0.9656741250736885</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47">
+      <c r="A11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11">
+        <v>9.933245543851736e-08</v>
+      </c>
+      <c r="J11">
+        <v>0.001024241774150479</v>
+      </c>
+      <c r="K11">
+        <v>1.171747054602314e-09</v>
+      </c>
+      <c r="L11">
+        <v>0.001069008102711115</v>
+      </c>
+      <c r="U11">
+        <v>3.416795997964444e-08</v>
+      </c>
+      <c r="Z11">
+        <v>3.322083674176933e-09</v>
+      </c>
+      <c r="AB11">
+        <v>2.324391303983033e-07</v>
+      </c>
+      <c r="AC11">
+        <v>4.289970573550203e-09</v>
+      </c>
+      <c r="AL11">
+        <v>2.19310735567988e-08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47">
+      <c r="A12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12">
         <v>0.959635620521557</v>
       </c>
-      <c r="C4">
+      <c r="F12">
         <v>0.9597558614011463</v>
       </c>
-      <c r="D4">
+      <c r="H12">
         <v>0.9999805224050636</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
+      <c r="I12">
+        <v>-0.994423222943826</v>
+      </c>
+      <c r="J12">
+        <v>0.6359871258089126</v>
+      </c>
+      <c r="K12">
+        <v>-0.9688043895286557</v>
+      </c>
+      <c r="L12">
+        <v>0.7234213530228087</v>
+      </c>
+      <c r="U12">
+        <v>0.9948926933370018</v>
+      </c>
+      <c r="Z12">
+        <v>0.9858673512158432</v>
+      </c>
+      <c r="AB12">
+        <v>0.9809335915760119</v>
+      </c>
+      <c r="AC12">
+        <v>-0.9878242063292376</v>
+      </c>
+      <c r="AL12">
+        <v>0.995053751822263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47">
+      <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13">
         <v>5.722907875837269e-08</v>
       </c>
-      <c r="C5">
+      <c r="F13">
         <v>5.622851119074882e-08</v>
       </c>
-      <c r="D5">
+      <c r="H13">
         <v>7.882896958740692e-28</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
+      <c r="I13">
+        <v>4.291371185847785e-13</v>
+      </c>
+      <c r="J13">
+        <v>0.01449042247282571</v>
+      </c>
+      <c r="K13">
+        <v>1.244062402568055e-08</v>
+      </c>
+      <c r="L13">
+        <v>0.003452291866831741</v>
+      </c>
+      <c r="U13">
+        <v>2.534462196408155e-13</v>
+      </c>
+      <c r="Z13">
+        <v>1.115949352844085e-10</v>
+      </c>
+      <c r="AB13">
+        <v>6.657249215781727e-10</v>
+      </c>
+      <c r="AC13">
+        <v>4.58265676522568e-11</v>
+      </c>
+      <c r="AL13">
+        <v>2.091894641632268e-13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47">
+      <c r="A14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14">
         <v>0.9586178504467009</v>
       </c>
-      <c r="C6">
+      <c r="F14">
         <v>0.9587422133955897</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
+      <c r="I14">
+        <v>-0.9939772685906859</v>
+      </c>
+      <c r="J14">
+        <v>0.6324835206875915</v>
+      </c>
+      <c r="K14">
+        <v>-0.967804064395396</v>
+      </c>
+      <c r="L14">
+        <v>0.7204948342321753</v>
+      </c>
+      <c r="U14">
+        <v>0.9945885681517087</v>
+      </c>
+      <c r="Z14">
+        <v>0.9849841617968828</v>
+      </c>
+      <c r="AB14">
+        <v>0.9800385722518646</v>
+      </c>
+      <c r="AC14">
+        <v>-0.9872829957235144</v>
+      </c>
+      <c r="AL14">
+        <v>0.9947532830385015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47">
+      <c r="A15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15">
         <v>6.630446218659877e-08</v>
       </c>
-      <c r="C7">
+      <c r="F15">
         <v>6.513548845056081e-08</v>
+      </c>
+      <c r="I15">
+        <v>6.802074605689986e-13</v>
+      </c>
+      <c r="J15">
+        <v>0.01521420232044528</v>
+      </c>
+      <c r="K15">
+        <v>1.500185216727822e-08</v>
+      </c>
+      <c r="L15">
+        <v>0.003651603991354874</v>
+      </c>
+      <c r="U15">
+        <v>3.583634846721414e-13</v>
+      </c>
+      <c r="Z15">
+        <v>1.602410989114053e-10</v>
+      </c>
+      <c r="AB15">
+        <v>8.74967073391527e-10</v>
+      </c>
+      <c r="AC15">
+        <v>5.942051531204954e-11</v>
+      </c>
+      <c r="AL15">
+        <v>2.97803652618707e-13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47">
+      <c r="A16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16">
+        <v>-0.726045043156469</v>
+      </c>
+      <c r="U16">
+        <v>-0.9941689351444172</v>
+      </c>
+      <c r="AL16">
+        <v>-0.9935956030490882</v>
+      </c>
+    </row>
+    <row r="17" spans="1:47">
+      <c r="A17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17">
+        <v>0.003280972993720415</v>
+      </c>
+      <c r="U17">
+        <v>5.604623387303271e-13</v>
+      </c>
+      <c r="AL17">
+        <v>9.826385781616553e-13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:47">
+      <c r="A18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18">
+        <v>-0.6492572646889193</v>
+      </c>
+      <c r="K18">
+        <v>-0.7964902025504981</v>
+      </c>
+      <c r="L18">
+        <v>0.8050477816207743</v>
+      </c>
+      <c r="U18">
+        <v>0.665008433439228</v>
+      </c>
+      <c r="AC18">
+        <v>-0.7135461608373661</v>
+      </c>
+      <c r="AL18">
+        <v>0.6721183497741124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:47">
+      <c r="A19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19">
+        <v>0.01198462381909342</v>
+      </c>
+      <c r="K19">
+        <v>0.0006511459914362569</v>
+      </c>
+      <c r="L19">
+        <v>0.0005132950275740601</v>
+      </c>
+      <c r="U19">
+        <v>0.009457518921938902</v>
+      </c>
+      <c r="AC19">
+        <v>0.004161147971462981</v>
+      </c>
+      <c r="AL19">
+        <v>0.008461737325827215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:47">
+      <c r="A20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20">
+        <v>0.9696095536001327</v>
+      </c>
+      <c r="L20">
+        <v>-0.778957077672823</v>
+      </c>
+      <c r="U20">
+        <v>-0.9802388996347806</v>
+      </c>
+      <c r="AL20">
+        <v>-0.9823198579903427</v>
+      </c>
+    </row>
+    <row r="21" spans="1:47">
+      <c r="A21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21">
+        <v>1.065276090376152e-08</v>
+      </c>
+      <c r="L21">
+        <v>0.001026231286422273</v>
+      </c>
+      <c r="U21">
+        <v>8.239421912802978e-10</v>
+      </c>
+      <c r="AL21">
+        <v>4.245173368674003e-10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:47">
+      <c r="A22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22">
+        <v>-0.3508800659699833</v>
+      </c>
+      <c r="E22">
+        <v>-0.9501833228139133</v>
+      </c>
+      <c r="F22">
+        <v>-0.9502497932370411</v>
+      </c>
+      <c r="G22">
+        <v>-0.9797686130023964</v>
+      </c>
+      <c r="H22">
+        <v>-0.9792601503905668</v>
+      </c>
+      <c r="I22">
+        <v>0.9912300450707884</v>
+      </c>
+      <c r="J22">
+        <v>-0.6413478197852762</v>
+      </c>
+      <c r="K22">
+        <v>0.9594904301785683</v>
+      </c>
+      <c r="L22">
+        <v>-0.6652535022010756</v>
+      </c>
+      <c r="N22">
+        <v>-0.524885464683654</v>
+      </c>
+      <c r="O22">
+        <v>0.9988739468112169</v>
+      </c>
+      <c r="P22">
+        <v>0.9918032249432551</v>
+      </c>
+      <c r="Q22">
+        <v>0.9948581845735294</v>
+      </c>
+      <c r="R22">
+        <v>0.9756919623808629</v>
+      </c>
+      <c r="S22">
+        <v>0.9558600351574572</v>
+      </c>
+      <c r="T22">
+        <v>0.3159718104295415</v>
+      </c>
+      <c r="U22">
+        <v>-0.9830079075348325</v>
+      </c>
+      <c r="V22">
+        <v>0.9658728658745279</v>
+      </c>
+      <c r="W22">
+        <v>0.9560447422108784</v>
+      </c>
+      <c r="Z22">
+        <v>-0.9854344645927339</v>
+      </c>
+      <c r="AB22">
+        <v>-0.9751126215167217</v>
+      </c>
+      <c r="AC22">
+        <v>0.9795146003895638</v>
+      </c>
+      <c r="AD22">
+        <v>-0.9887665664657016</v>
+      </c>
+      <c r="AE22">
+        <v>-0.9911064657634321</v>
+      </c>
+      <c r="AF22">
+        <v>-0.9841690546847126</v>
+      </c>
+      <c r="AG22">
+        <v>-0.9815415764925113</v>
+      </c>
+      <c r="AH22">
+        <v>-0.9800589070936342</v>
+      </c>
+      <c r="AI22">
+        <v>0.8924171315822137</v>
+      </c>
+      <c r="AJ22">
+        <v>0.9528803419604114</v>
+      </c>
+      <c r="AL22">
+        <v>-0.9822491430576634</v>
+      </c>
+      <c r="AM22">
+        <v>-0.551039924043954</v>
+      </c>
+      <c r="AN22">
+        <v>-0.9706346756873485</v>
+      </c>
+      <c r="AO22">
+        <v>0.9801496024143264</v>
+      </c>
+      <c r="AP22">
+        <v>0.9794715432532103</v>
+      </c>
+      <c r="AQ22">
+        <v>0.9330895128941459</v>
+      </c>
+      <c r="AR22">
+        <v>0.9798103688684628</v>
+      </c>
+      <c r="AS22">
+        <v>0.9266175998378345</v>
+      </c>
+      <c r="AT22">
+        <v>0.9688783580962278</v>
+      </c>
+      <c r="AU22">
+        <v>0.9694792673838634</v>
+      </c>
+    </row>
+    <row r="23" spans="1:47">
+      <c r="A23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23">
+        <v>0.2186779805610868</v>
+      </c>
+      <c r="E23">
+        <v>1.981165522054578e-07</v>
+      </c>
+      <c r="F23">
+        <v>1.965643041870348e-07</v>
+      </c>
+      <c r="G23">
+        <v>9.478569947056424e-10</v>
+      </c>
+      <c r="H23">
+        <v>1.098867844329034e-09</v>
+      </c>
+      <c r="I23">
+        <v>6.446151168460358e-12</v>
+      </c>
+      <c r="J23">
+        <v>0.01343422928950819</v>
+      </c>
+      <c r="K23">
+        <v>5.845687100787177e-08</v>
+      </c>
+      <c r="L23">
+        <v>0.009421758860680911</v>
+      </c>
+      <c r="N23">
+        <v>0.05395754026872858</v>
+      </c>
+      <c r="O23">
+        <v>2.936278559604287e-17</v>
+      </c>
+      <c r="P23">
+        <v>4.302388468805323e-12</v>
+      </c>
+      <c r="Q23">
+        <v>2.638766263741457e-13</v>
+      </c>
+      <c r="R23">
+        <v>2.826577970296682e-09</v>
+      </c>
+      <c r="S23">
+        <v>9.706130412924879e-08</v>
+      </c>
+      <c r="T23">
+        <v>0.2710993156388438</v>
+      </c>
+      <c r="U23">
+        <v>3.350478382659562e-10</v>
+      </c>
+      <c r="V23">
+        <v>2.118929872247595e-08</v>
+      </c>
+      <c r="W23">
+        <v>9.468782201901276e-08</v>
+      </c>
+      <c r="Z23">
+        <v>1.336154463670133e-10</v>
+      </c>
+      <c r="AB23">
+        <v>3.251562302270739e-09</v>
+      </c>
+      <c r="AC23">
+        <v>1.020979963050876e-09</v>
+      </c>
+      <c r="AD23">
+        <v>2.831977567116744e-11</v>
+      </c>
+      <c r="AE23">
+        <v>7.008856978510689e-12</v>
+      </c>
+      <c r="AF23">
+        <v>2.196617008400828e-10</v>
+      </c>
+      <c r="AG23">
+        <v>5.488063248256051e-10</v>
+      </c>
+      <c r="AH23">
+        <v>8.696708595271623e-10</v>
+      </c>
+      <c r="AI23">
+        <v>1.768733497615755e-05</v>
+      </c>
+      <c r="AJ23">
+        <v>1.427064232982292e-07</v>
+      </c>
+      <c r="AL23">
+        <v>4.347410104076106e-10</v>
+      </c>
+      <c r="AM23">
+        <v>0.04111809404116266</v>
+      </c>
+      <c r="AN23">
+        <v>8.68988112725919e-09</v>
+      </c>
+      <c r="AO23">
+        <v>8.463724205220854e-10</v>
+      </c>
+      <c r="AP23">
+        <v>1.033827295081493e-09</v>
+      </c>
+      <c r="AQ23">
+        <v>1.120358988166987e-06</v>
+      </c>
+      <c r="AR23">
+        <v>9.362640541920886e-10</v>
+      </c>
+      <c r="AS23">
+        <v>1.921987501072726e-06</v>
+      </c>
+      <c r="AT23">
+        <v>1.226664873210441e-08</v>
+      </c>
+      <c r="AU23">
+        <v>1.092664199580993e-08</v>
+      </c>
+    </row>
+    <row r="24" spans="1:47">
+      <c r="A24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24">
+        <v>0.459472145354368</v>
+      </c>
+      <c r="E24">
+        <v>0.6114313733963799</v>
+      </c>
+      <c r="F24">
+        <v>0.6112288775657281</v>
+      </c>
+      <c r="G24">
+        <v>0.5711777173145175</v>
+      </c>
+      <c r="H24">
+        <v>0.5686010379905895</v>
+      </c>
+      <c r="I24">
+        <v>-0.5650200837732833</v>
+      </c>
+      <c r="J24">
+        <v>0.6055248652820499</v>
+      </c>
+      <c r="K24">
+        <v>-0.5996593182341498</v>
+      </c>
+      <c r="L24">
+        <v>0.8180183691257018</v>
+      </c>
+      <c r="O24">
+        <v>-0.5098509289874296</v>
+      </c>
+      <c r="P24">
+        <v>-0.5803096646242059</v>
+      </c>
+      <c r="Q24">
+        <v>-0.5734524543546086</v>
+      </c>
+      <c r="R24">
+        <v>-0.5688847531987815</v>
+      </c>
+      <c r="S24">
+        <v>-0.6078327835656757</v>
+      </c>
+      <c r="T24">
+        <v>-0.3636914821747619</v>
+      </c>
+      <c r="U24">
+        <v>0.5651527165618875</v>
+      </c>
+      <c r="V24">
+        <v>-0.5663504324746995</v>
+      </c>
+      <c r="W24">
+        <v>-0.5052580840351627</v>
+      </c>
+      <c r="Z24">
+        <v>0.5949491572635374</v>
+      </c>
+      <c r="AB24">
+        <v>0.6194804634523676</v>
+      </c>
+      <c r="AC24">
+        <v>-0.5612093318262692</v>
+      </c>
+      <c r="AD24">
+        <v>0.5736097841893028</v>
+      </c>
+      <c r="AE24">
+        <v>0.567817734096708</v>
+      </c>
+      <c r="AF24">
+        <v>0.5714212473074127</v>
+      </c>
+      <c r="AG24">
+        <v>0.5845698952845431</v>
+      </c>
+      <c r="AH24">
+        <v>0.5202515103681755</v>
+      </c>
+      <c r="AI24">
+        <v>-0.5152195806742813</v>
+      </c>
+      <c r="AJ24">
+        <v>-0.5618282425484706</v>
+      </c>
+      <c r="AK24">
+        <v>0.2995949359177474</v>
+      </c>
+      <c r="AL24">
+        <v>0.5657923669269881</v>
+      </c>
+      <c r="AN24">
+        <v>0.5168982387763649</v>
+      </c>
+      <c r="AO24">
+        <v>-0.563152724465281</v>
+      </c>
+      <c r="AP24">
+        <v>-0.5648272792528078</v>
+      </c>
+      <c r="AQ24">
+        <v>-0.4438971393802866</v>
+      </c>
+      <c r="AR24">
+        <v>-0.5640176461366815</v>
+      </c>
+      <c r="AS24">
+        <v>-0.5839576243100548</v>
+      </c>
+      <c r="AT24">
+        <v>-0.5824164464526802</v>
+      </c>
+      <c r="AU24">
+        <v>-0.5819675346713847</v>
+      </c>
+    </row>
+    <row r="25" spans="1:47">
+      <c r="A25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25">
+        <v>0.09835958126302023</v>
+      </c>
+      <c r="E25">
+        <v>0.02015980571191628</v>
+      </c>
+      <c r="F25">
+        <v>0.02021261817637675</v>
+      </c>
+      <c r="G25">
+        <v>0.03288161157113401</v>
+      </c>
+      <c r="H25">
+        <v>0.03386066142136716</v>
+      </c>
+      <c r="I25">
+        <v>0.03525694399398392</v>
+      </c>
+      <c r="J25">
+        <v>0.0217436671101213</v>
+      </c>
+      <c r="K25">
+        <v>0.0234075934777916</v>
+      </c>
+      <c r="L25">
+        <v>0.0003499352821816411</v>
+      </c>
+      <c r="O25">
+        <v>0.06253236587761909</v>
+      </c>
+      <c r="P25">
+        <v>0.02958025025609588</v>
+      </c>
+      <c r="Q25">
+        <v>0.03203487938879143</v>
+      </c>
+      <c r="R25">
+        <v>0.03375181450765314</v>
+      </c>
+      <c r="S25">
+        <v>0.02111401411969675</v>
+      </c>
+      <c r="T25">
+        <v>0.2011576510888976</v>
+      </c>
+      <c r="U25">
+        <v>0.03520448128491226</v>
+      </c>
+      <c r="V25">
+        <v>0.03473333725470146</v>
+      </c>
+      <c r="W25">
+        <v>0.06533612138057972</v>
+      </c>
+      <c r="Z25">
+        <v>0.02481161571884763</v>
+      </c>
+      <c r="AB25">
+        <v>0.01814367144297718</v>
+      </c>
+      <c r="AC25">
+        <v>0.03678910979712245</v>
+      </c>
+      <c r="AD25">
+        <v>0.03197692080190705</v>
+      </c>
+      <c r="AE25">
+        <v>0.03416252467496091</v>
+      </c>
+      <c r="AF25">
+        <v>0.03279017695454929</v>
+      </c>
+      <c r="AG25">
+        <v>0.02812755882528946</v>
+      </c>
+      <c r="AH25">
+        <v>0.05650375675411251</v>
+      </c>
+      <c r="AI25">
+        <v>0.05936560569668298</v>
+      </c>
+      <c r="AJ25">
+        <v>0.03653698673806664</v>
+      </c>
+      <c r="AK25">
+        <v>0.2980521691065657</v>
+      </c>
+      <c r="AL25">
+        <v>0.03495227864950062</v>
+      </c>
+      <c r="AN25">
+        <v>0.05839955543683067</v>
+      </c>
+      <c r="AO25">
+        <v>0.03600172650082532</v>
+      </c>
+      <c r="AP25">
+        <v>0.03533331061004908</v>
+      </c>
+      <c r="AQ25">
+        <v>0.1118334674328231</v>
+      </c>
+      <c r="AR25">
+        <v>0.03565532820435607</v>
+      </c>
+      <c r="AS25">
+        <v>0.02833298894746194</v>
+      </c>
+      <c r="AT25">
+        <v>0.02885504277306898</v>
+      </c>
+      <c r="AU25">
+        <v>0.02900844588086793</v>
+      </c>
+    </row>
+    <row r="26" spans="1:47">
+      <c r="A26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26">
+        <v>-0.3212399483241031</v>
+      </c>
+      <c r="E26">
+        <v>-0.9379742921715584</v>
+      </c>
+      <c r="F26">
+        <v>-0.9380533156033729</v>
+      </c>
+      <c r="G26">
+        <v>-0.9761900293095602</v>
+      </c>
+      <c r="H26">
+        <v>-0.9757940278452254</v>
+      </c>
+      <c r="I26">
+        <v>0.988703908322195</v>
+      </c>
+      <c r="J26">
+        <v>-0.6074677022331121</v>
+      </c>
+      <c r="K26">
+        <v>0.9457545891909909</v>
+      </c>
+      <c r="L26">
+        <v>-0.6447624527458571</v>
+      </c>
+      <c r="P26">
+        <v>0.9854806960679544</v>
+      </c>
+      <c r="Q26">
+        <v>0.9903298053848397</v>
+      </c>
+      <c r="R26">
+        <v>0.9663850212786594</v>
+      </c>
+      <c r="S26">
+        <v>0.9421352694054318</v>
+      </c>
+      <c r="T26">
+        <v>0.271627621152339</v>
+      </c>
+      <c r="U26">
+        <v>-0.9774778816908082</v>
+      </c>
+      <c r="V26">
+        <v>0.9685597768554184</v>
+      </c>
+      <c r="W26">
+        <v>0.9614809518654355</v>
+      </c>
+      <c r="Z26">
+        <v>-0.9780243336058231</v>
+      </c>
+      <c r="AB26">
+        <v>-0.972664957637949</v>
+      </c>
+      <c r="AC26">
+        <v>0.9710682998418851</v>
+      </c>
+      <c r="AD26">
+        <v>-0.9835696723949838</v>
+      </c>
+      <c r="AE26">
+        <v>-0.9863492271046711</v>
+      </c>
+      <c r="AF26">
+        <v>-0.9840728852493736</v>
+      </c>
+      <c r="AG26">
+        <v>-0.9798784183991532</v>
+      </c>
+      <c r="AH26">
+        <v>-0.9836118499110397</v>
+      </c>
+      <c r="AI26">
+        <v>0.876990799795108</v>
+      </c>
+      <c r="AJ26">
+        <v>0.9413967003965458</v>
+      </c>
+      <c r="AL26">
+        <v>-0.9762134986181971</v>
+      </c>
+      <c r="AM26">
+        <v>-0.5839393571714602</v>
+      </c>
+      <c r="AN26">
+        <v>-0.9705074881958832</v>
+      </c>
+      <c r="AO26">
+        <v>0.974091415686407</v>
+      </c>
+      <c r="AP26">
+        <v>0.9730238986996462</v>
+      </c>
+      <c r="AQ26">
+        <v>0.9435532408578452</v>
+      </c>
+      <c r="AR26">
+        <v>0.9735522580613117</v>
+      </c>
+      <c r="AS26">
+        <v>0.9094853459002387</v>
+      </c>
+      <c r="AT26">
+        <v>0.9581907593303394</v>
+      </c>
+      <c r="AU26">
+        <v>0.9589509977246227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:47">
+      <c r="A27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27">
+        <v>0.2627487322956027</v>
+      </c>
+      <c r="E27">
+        <v>7.185980794535954e-07</v>
+      </c>
+      <c r="F27">
+        <v>7.132461675324971e-07</v>
+      </c>
+      <c r="G27">
+        <v>2.499094446994656e-09</v>
+      </c>
+      <c r="H27">
+        <v>2.756719924981824e-09</v>
+      </c>
+      <c r="I27">
+        <v>2.927691881928163e-11</v>
+      </c>
+      <c r="J27">
+        <v>0.0212126892775737</v>
+      </c>
+      <c r="K27">
+        <v>3.270716974811882e-07</v>
+      </c>
+      <c r="L27">
+        <v>0.01279284197761048</v>
+      </c>
+      <c r="P27">
+        <v>1.311040165681028e-10</v>
+      </c>
+      <c r="Q27">
+        <v>1.156343248205722e-11</v>
+      </c>
+      <c r="R27">
+        <v>1.937303911614594e-08</v>
+      </c>
+      <c r="S27">
+        <v>4.780845444835983e-07</v>
+      </c>
+      <c r="T27">
+        <v>0.347519758438608</v>
+      </c>
+      <c r="U27">
+        <v>1.79512389187032e-09</v>
+      </c>
+      <c r="V27">
+        <v>1.30306018714812e-08</v>
+      </c>
+      <c r="W27">
+        <v>4.339349632637748e-08</v>
+      </c>
+      <c r="Z27">
+        <v>1.550973435545024e-09</v>
+      </c>
+      <c r="AB27">
+        <v>5.678507779971842e-09</v>
+      </c>
+      <c r="AC27">
+        <v>7.955307484362628e-09</v>
+      </c>
+      <c r="AD27">
+        <v>2.741758694130982e-10</v>
+      </c>
+      <c r="AE27">
+        <v>9.071883061664196e-11</v>
+      </c>
+      <c r="AF27">
+        <v>2.277434232941902e-10</v>
+      </c>
+      <c r="AG27">
+        <v>9.176235757294073e-10</v>
+      </c>
+      <c r="AH27">
+        <v>2.700044949591879e-10</v>
+      </c>
+      <c r="AI27">
+        <v>3.817653684675544e-05</v>
+      </c>
+      <c r="AJ27">
+        <v>5.150508771686422e-07</v>
+      </c>
+      <c r="AL27">
+        <v>2.48447691146088e-09</v>
+      </c>
+      <c r="AM27">
+        <v>0.02833913511754742</v>
+      </c>
+      <c r="AN27">
+        <v>8.91570829357362e-09</v>
+      </c>
+      <c r="AO27">
+        <v>4.129707880723791e-09</v>
+      </c>
+      <c r="AP27">
+        <v>5.249627145942575e-09</v>
+      </c>
+      <c r="AQ27">
+        <v>4.132425062515305e-07</v>
+      </c>
+      <c r="AR27">
+        <v>4.667473519103705e-09</v>
+      </c>
+      <c r="AS27">
+        <v>6.516894968028951e-06</v>
+      </c>
+      <c r="AT27">
+        <v>7.045212706154282e-08</v>
+      </c>
+      <c r="AU27">
+        <v>6.321137598584203e-08</v>
+      </c>
+    </row>
+    <row r="28" spans="1:47">
+      <c r="A28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28">
+        <v>-0.4348102127574631</v>
+      </c>
+      <c r="E28">
+        <v>-0.9734991335912356</v>
+      </c>
+      <c r="F28">
+        <v>-0.9735414920209966</v>
+      </c>
+      <c r="G28">
+        <v>-0.9826947113702271</v>
+      </c>
+      <c r="H28">
+        <v>-0.9819816419082079</v>
+      </c>
+      <c r="I28">
+        <v>0.9892463396486612</v>
+      </c>
+      <c r="J28">
+        <v>-0.7058283972352914</v>
+      </c>
+      <c r="K28">
+        <v>0.98219438024169</v>
+      </c>
+      <c r="L28">
+        <v>-0.7219332052129737</v>
+      </c>
+      <c r="S28">
+        <v>0.9829188657759598</v>
+      </c>
+      <c r="T28">
+        <v>0.4068961958780682</v>
+      </c>
+      <c r="U28">
+        <v>-0.9894819532370679</v>
+      </c>
+      <c r="V28">
+        <v>0.952083504776999</v>
+      </c>
+      <c r="W28">
+        <v>0.937464386460378</v>
+      </c>
+      <c r="Z28">
+        <v>-0.9949275222400706</v>
+      </c>
+      <c r="AB28">
+        <v>-0.9739951810790543</v>
+      </c>
+      <c r="AC28">
+        <v>0.9904217355959019</v>
+      </c>
+      <c r="AD28">
+        <v>-0.9935207698022025</v>
+      </c>
+      <c r="AE28">
+        <v>-0.9948806106306158</v>
+      </c>
+      <c r="AF28">
+        <v>-0.9769319602715573</v>
+      </c>
+      <c r="AG28">
+        <v>-0.97751738261281</v>
+      </c>
+      <c r="AH28">
+        <v>-0.9662267346961125</v>
+      </c>
+      <c r="AI28">
+        <v>0.9235904714738553</v>
+      </c>
+      <c r="AJ28">
+        <v>0.9732468763670734</v>
+      </c>
+      <c r="AL28">
+        <v>-0.989774977543401</v>
+      </c>
+      <c r="AM28">
+        <v>-0.4810041882098928</v>
+      </c>
+      <c r="AN28">
+        <v>-0.9664363954357129</v>
+      </c>
+      <c r="AO28">
+        <v>0.988000722489389</v>
+      </c>
+      <c r="AP28">
+        <v>0.9881400247716994</v>
+      </c>
+      <c r="AQ28">
+        <v>0.9073663196995914</v>
+      </c>
+      <c r="AR28">
+        <v>0.9880810193887009</v>
+      </c>
+      <c r="AS28">
+        <v>0.9575253597586881</v>
+      </c>
+      <c r="AT28">
+        <v>0.9862943048259079</v>
+      </c>
+      <c r="AU28">
+        <v>0.98655759360466</v>
+      </c>
+    </row>
+    <row r="29" spans="1:47">
+      <c r="A29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29">
+        <v>0.1202514826712251</v>
+      </c>
+      <c r="E29">
+        <v>4.723465520012037e-09</v>
+      </c>
+      <c r="F29">
+        <v>4.678775940012277e-09</v>
+      </c>
+      <c r="G29">
+        <v>3.735986358862104e-10</v>
+      </c>
+      <c r="H29">
+        <v>4.752862434335073e-10</v>
+      </c>
+      <c r="I29">
+        <v>2.18173002515462e-11</v>
+      </c>
+      <c r="J29">
+        <v>0.004790731001066962</v>
+      </c>
+      <c r="K29">
+        <v>4.42798267458019e-10</v>
+      </c>
+      <c r="L29">
+        <v>0.003552543793378827</v>
+      </c>
+      <c r="S29">
+        <v>3.456546897045746e-10</v>
+      </c>
+      <c r="T29">
+        <v>0.1487701070963019</v>
+      </c>
+      <c r="U29">
+        <v>1.911146101986019e-11</v>
+      </c>
+      <c r="V29">
+        <v>1.575380186462842e-07</v>
+      </c>
+      <c r="W29">
+        <v>7.539347724769716e-07</v>
+      </c>
+      <c r="Z29">
+        <v>2.432694607649822e-13</v>
+      </c>
+      <c r="AB29">
+        <v>4.221723224858571e-09</v>
+      </c>
+      <c r="AC29">
+        <v>1.09214999514342e-11</v>
+      </c>
+      <c r="AD29">
+        <v>1.053404088534965e-12</v>
+      </c>
+      <c r="AE29">
+        <v>2.570584661594707e-13</v>
+      </c>
+      <c r="AF29">
+        <v>2.070096169354734e-09</v>
+      </c>
+      <c r="AG29">
+        <v>1.776467719499418e-09</v>
+      </c>
+      <c r="AH29">
+        <v>1.992001871376243e-08</v>
+      </c>
+      <c r="AI29">
+        <v>2.433223634568743e-06</v>
+      </c>
+      <c r="AJ29">
+        <v>4.997008121671125e-09</v>
+      </c>
+      <c r="AL29">
+        <v>1.614145725740868e-11</v>
+      </c>
+      <c r="AM29">
+        <v>0.08164647508852844</v>
+      </c>
+      <c r="AN29">
+        <v>1.919820983661936e-08</v>
+      </c>
+      <c r="AO29">
+        <v>4.199806584405328e-11</v>
+      </c>
+      <c r="AP29">
+        <v>3.916802251195687e-11</v>
+      </c>
+      <c r="AQ29">
+        <v>7.452390843279505e-06</v>
+      </c>
+      <c r="AR29">
+        <v>4.034674135500125e-11</v>
+      </c>
+      <c r="AS29">
+        <v>7.734086803436656e-08</v>
+      </c>
+      <c r="AT29">
+        <v>9.291996070984972e-11</v>
+      </c>
+      <c r="AU29">
+        <v>8.275820640230047e-11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:47">
+      <c r="A30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30">
+        <v>-0.4156083740729711</v>
+      </c>
+      <c r="E30">
+        <v>-0.9678940543249867</v>
+      </c>
+      <c r="F30">
+        <v>-0.9679465836571716</v>
+      </c>
+      <c r="G30">
+        <v>-0.9840267544924993</v>
+      </c>
+      <c r="H30">
+        <v>-0.9834001045730394</v>
+      </c>
+      <c r="I30">
+        <v>0.9913858989454136</v>
+      </c>
+      <c r="J30">
+        <v>-0.681139177417755</v>
+      </c>
+      <c r="K30">
+        <v>0.9750409456111621</v>
+      </c>
+      <c r="L30">
+        <v>-0.7103535802799791</v>
+      </c>
+      <c r="P30">
+        <v>0.9992563782055633</v>
+      </c>
+      <c r="R30">
+        <v>0.9852586311452047</v>
+      </c>
+      <c r="S30">
+        <v>0.9761522524468308</v>
+      </c>
+      <c r="T30">
+        <v>0.3716233366542606</v>
+      </c>
+      <c r="U30">
+        <v>-0.9891117520259057</v>
+      </c>
+      <c r="V30">
+        <v>0.9584291488166369</v>
+      </c>
+      <c r="W30">
+        <v>0.9458908874260124</v>
+      </c>
+      <c r="Z30">
+        <v>-0.9932442155150808</v>
+      </c>
+      <c r="AB30">
+        <v>-0.976444712296372</v>
+      </c>
+      <c r="AC30">
+        <v>0.9874774188235036</v>
+      </c>
+      <c r="AD30">
+        <v>-0.9935089851620005</v>
+      </c>
+      <c r="AE30">
+        <v>-0.9952703136986483</v>
+      </c>
+      <c r="AF30">
+        <v>-0.9810725349298208</v>
+      </c>
+      <c r="AG30">
+        <v>-0.9803475557149895</v>
+      </c>
+      <c r="AH30">
+        <v>-0.9732820961470358</v>
+      </c>
+      <c r="AI30">
+        <v>0.9145918393610141</v>
+      </c>
+      <c r="AJ30">
+        <v>0.9678122295231694</v>
+      </c>
+      <c r="AL30">
+        <v>-0.9889908546290858</v>
+      </c>
+      <c r="AM30">
+        <v>-0.5099052445831903</v>
+      </c>
+      <c r="AN30">
+        <v>-0.9703389565768223</v>
+      </c>
+      <c r="AO30">
+        <v>0.9871810954101494</v>
+      </c>
+      <c r="AP30">
+        <v>0.9869992180690974</v>
+      </c>
+      <c r="AQ30">
+        <v>0.9198398537324105</v>
+      </c>
+      <c r="AR30">
+        <v>0.9870965494789077</v>
+      </c>
+      <c r="AS30">
+        <v>0.9473021499199111</v>
+      </c>
+      <c r="AT30">
+        <v>0.981640274922404</v>
+      </c>
+      <c r="AU30">
+        <v>0.9820364562568357</v>
+      </c>
+    </row>
+    <row r="31" spans="1:47">
+      <c r="A31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31">
+        <v>0.1394311179516359</v>
+      </c>
+      <c r="E31">
+        <v>1.47548975007128e-08</v>
+      </c>
+      <c r="F31">
+        <v>1.461230921913724e-08</v>
+      </c>
+      <c r="G31">
+        <v>2.317069121556293e-10</v>
+      </c>
+      <c r="H31">
+        <v>2.914910132751126e-10</v>
+      </c>
+      <c r="I31">
+        <v>5.790574190382842e-12</v>
+      </c>
+      <c r="J31">
+        <v>0.007317312061438484</v>
+      </c>
+      <c r="K31">
+        <v>3.3076425240035e-09</v>
+      </c>
+      <c r="L31">
+        <v>0.004413181163296815</v>
+      </c>
+      <c r="P31">
+        <v>2.43731980489054e-18</v>
+      </c>
+      <c r="R31">
+        <v>1.435358029951262e-10</v>
+      </c>
+      <c r="S31">
+        <v>2.522773212242073e-09</v>
+      </c>
+      <c r="T31">
+        <v>0.1907699346213294</v>
+      </c>
+      <c r="U31">
+        <v>2.350094624255217e-11</v>
+      </c>
+      <c r="V31">
+        <v>6.811134704628305e-08</v>
+      </c>
+      <c r="W31">
+        <v>3.22267871603633e-07</v>
+      </c>
+      <c r="Z31">
+        <v>1.352854900513779e-12</v>
+      </c>
+      <c r="AB31">
+        <v>2.34422461602033e-09</v>
+      </c>
+      <c r="AC31">
+        <v>5.41966547387442e-11</v>
+      </c>
+      <c r="AD31">
+        <v>1.064925325632631e-12</v>
+      </c>
+      <c r="AE31">
+        <v>1.599853928910457e-13</v>
+      </c>
+      <c r="AF31">
+        <v>6.37333079976346e-10</v>
+      </c>
+      <c r="AG31">
+        <v>7.97317594485162e-10</v>
+      </c>
+      <c r="AH31">
+        <v>4.958045364447599e-09</v>
+      </c>
+      <c r="AI31">
+        <v>4.652057311169795e-06</v>
+      </c>
+      <c r="AJ31">
+        <v>1.497930458759222e-08</v>
+      </c>
+      <c r="AL31">
+        <v>2.510417606996291e-11</v>
+      </c>
+      <c r="AM31">
+        <v>0.06249973356676112</v>
+      </c>
+      <c r="AN31">
+        <v>9.222425288320701e-09</v>
+      </c>
+      <c r="AO31">
+        <v>6.232147037161156e-11</v>
+      </c>
+      <c r="AP31">
+        <v>6.779207384624811e-11</v>
+      </c>
+      <c r="AQ31">
+        <v>3.216971492196221e-06</v>
+      </c>
+      <c r="AR31">
+        <v>6.481690432010923e-11</v>
+      </c>
+      <c r="AS31">
+        <v>2.758629362785885e-07</v>
+      </c>
+      <c r="AT31">
+        <v>5.315462191070236e-10</v>
+      </c>
+      <c r="AU31">
+        <v>4.667318431335728e-10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:47">
+      <c r="A32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32">
+        <v>-0.4211634395812702</v>
+      </c>
+      <c r="E32">
+        <v>-0.9748562715480599</v>
+      </c>
+      <c r="F32">
+        <v>-0.9749142662966547</v>
+      </c>
+      <c r="G32">
+        <v>-0.9849449540085844</v>
+      </c>
+      <c r="H32">
+        <v>-0.9843822775051103</v>
+      </c>
+      <c r="I32">
+        <v>0.9838515395547445</v>
+      </c>
+      <c r="J32">
+        <v>-0.720877760360479</v>
+      </c>
+      <c r="K32">
+        <v>0.9919529425106123</v>
+      </c>
+      <c r="L32">
+        <v>-0.7296417048464376</v>
+      </c>
+      <c r="P32">
+        <v>0.9889089348237624</v>
+      </c>
+      <c r="S32">
+        <v>0.9885580353607099</v>
+      </c>
+      <c r="T32">
+        <v>0.4750213302803905</v>
+      </c>
+      <c r="U32">
+        <v>-0.9952025966565528</v>
+      </c>
+      <c r="V32">
+        <v>0.9418846176120848</v>
+      </c>
+      <c r="W32">
+        <v>0.9333713341586254</v>
+      </c>
+      <c r="Z32">
+        <v>-0.9894441658438022</v>
+      </c>
+      <c r="AB32">
+        <v>-0.9626950447870533</v>
+      </c>
+      <c r="AC32">
+        <v>0.999621026136166</v>
+      </c>
+      <c r="AD32">
+        <v>-0.9916509219429278</v>
+      </c>
+      <c r="AE32">
+        <v>-0.9898052821699614</v>
+      </c>
+      <c r="AF32">
+        <v>-0.9668770848600259</v>
+      </c>
+      <c r="AG32">
+        <v>-0.9708939923611779</v>
+      </c>
+      <c r="AH32">
+        <v>-0.9570625525336165</v>
+      </c>
+      <c r="AI32">
+        <v>0.9599593339940956</v>
+      </c>
+      <c r="AJ32">
+        <v>0.9940066688739828</v>
+      </c>
+      <c r="AK32">
+        <v>-0.1079683301330161</v>
+      </c>
+      <c r="AL32">
+        <v>-0.9960560475054493</v>
+      </c>
+      <c r="AM32">
+        <v>-0.4686798210732237</v>
+      </c>
+      <c r="AN32">
+        <v>-0.9738213235891466</v>
+      </c>
+      <c r="AO32">
+        <v>0.9958316016593375</v>
+      </c>
+      <c r="AP32">
+        <v>0.996434599754947</v>
+      </c>
+      <c r="AQ32">
+        <v>0.9000184756806099</v>
+      </c>
+      <c r="AR32">
+        <v>0.9961501276140208</v>
+      </c>
+      <c r="AS32">
+        <v>0.9841034916563505</v>
+      </c>
+      <c r="AT32">
+        <v>0.9988934121756325</v>
+      </c>
+      <c r="AU32">
+        <v>0.9989674511986277</v>
+      </c>
+    </row>
+    <row r="33" spans="1:47">
+      <c r="A33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33">
+        <v>0.1336855386964364</v>
+      </c>
+      <c r="E33">
+        <v>3.455845348062327e-09</v>
+      </c>
+      <c r="F33">
+        <v>3.408722034518871e-09</v>
+      </c>
+      <c r="G33">
+        <v>1.627542165851272e-10</v>
+      </c>
+      <c r="H33">
+        <v>2.025905224310766e-10</v>
+      </c>
+      <c r="I33">
+        <v>2.472877701085613e-10</v>
+      </c>
+      <c r="J33">
+        <v>0.003625022557534041</v>
+      </c>
+      <c r="K33">
+        <v>3.853132297732331e-12</v>
+      </c>
+      <c r="L33">
+        <v>0.003057075535969408</v>
+      </c>
+      <c r="P33">
+        <v>2.624141858227034e-11</v>
+      </c>
+      <c r="S33">
+        <v>3.160991755262822e-11</v>
+      </c>
+      <c r="T33">
+        <v>0.0860734168508831</v>
+      </c>
+      <c r="U33">
+        <v>1.742049831287397e-13</v>
+      </c>
+      <c r="V33">
+        <v>4.903757718816067e-07</v>
+      </c>
+      <c r="W33">
+        <v>1.093019892817973e-06</v>
+      </c>
+      <c r="Z33">
+        <v>1.952555300391153e-11</v>
+      </c>
+      <c r="AB33">
+        <v>3.590189910430589e-08</v>
+      </c>
+      <c r="AC33">
+        <v>4.273609576126749e-20</v>
+      </c>
+      <c r="AD33">
+        <v>4.803308132616984e-12</v>
+      </c>
+      <c r="AE33">
+        <v>1.585757202121032e-11</v>
+      </c>
+      <c r="AF33">
+        <v>1.775153954927081e-08</v>
+      </c>
+      <c r="AG33">
+        <v>8.24413296504866e-09</v>
+      </c>
+      <c r="AH33">
+        <v>8.245368901942493e-08</v>
+      </c>
+      <c r="AI33">
+        <v>5.456836094257427e-08</v>
+      </c>
+      <c r="AJ33">
+        <v>6.605679197068021e-13</v>
+      </c>
+      <c r="AK33">
+        <v>0.7133260488288365</v>
+      </c>
+      <c r="AL33">
+        <v>5.387767393737949e-14</v>
+      </c>
+      <c r="AM33">
+        <v>0.09094646439221021</v>
+      </c>
+      <c r="AN33">
+        <v>4.392273677875592e-09</v>
+      </c>
+      <c r="AO33">
+        <v>7.506281774527322e-14</v>
+      </c>
+      <c r="AP33">
+        <v>2.943210603314118e-14</v>
+      </c>
+      <c r="AQ33">
+        <v>1.159031151283655e-05</v>
+      </c>
+      <c r="AR33">
+        <v>4.662131062622177e-14</v>
+      </c>
+      <c r="AS33">
+        <v>2.251449998761681e-10</v>
+      </c>
+      <c r="AT33">
+        <v>2.644705222925917e-17</v>
+      </c>
+      <c r="AU33">
+        <v>1.745799648134859e-17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:47">
+      <c r="A34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34">
+        <v>-0.9887242373982913</v>
+      </c>
+      <c r="F34">
+        <v>-0.9887467780674492</v>
+      </c>
+      <c r="G34">
+        <v>-0.9668904694466808</v>
+      </c>
+      <c r="H34">
+        <v>-0.9660558392800797</v>
+      </c>
+      <c r="I34">
+        <v>0.9636993011062641</v>
+      </c>
+      <c r="J34">
+        <v>-0.7841188250237376</v>
+      </c>
+      <c r="K34">
+        <v>0.994120154701179</v>
+      </c>
+      <c r="L34">
+        <v>-0.7743303141238835</v>
+      </c>
+      <c r="U34">
+        <v>-0.9764246471673518</v>
+      </c>
+      <c r="Z34">
+        <v>-0.9829164752347908</v>
+      </c>
+      <c r="AB34">
+        <v>-0.9486185579126245</v>
+      </c>
+      <c r="AC34">
+        <v>0.9868779275255638</v>
+      </c>
+      <c r="AG34">
+        <v>-0.9517112696421891</v>
+      </c>
+      <c r="AK34">
+        <v>-0.1798312223842453</v>
+      </c>
+      <c r="AL34">
+        <v>-0.9789188073745397</v>
+      </c>
+    </row>
+    <row r="35" spans="1:47">
+      <c r="A35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35">
+        <v>2.896347478071659e-11</v>
+      </c>
+      <c r="F35">
+        <v>2.861920036636759e-11</v>
+      </c>
+      <c r="G35">
+        <v>1.770905844835545e-08</v>
+      </c>
+      <c r="H35">
+        <v>2.052488357471521e-08</v>
+      </c>
+      <c r="I35">
+        <v>3.054614992359835e-08</v>
+      </c>
+      <c r="J35">
+        <v>0.0009014100345816571</v>
+      </c>
+      <c r="K35">
+        <v>5.891272357095253e-13</v>
+      </c>
+      <c r="L35">
+        <v>0.001149505509094979</v>
+      </c>
+      <c r="U35">
+        <v>2.356129208724731e-09</v>
+      </c>
+      <c r="Z35">
+        <v>3.459432578518332e-10</v>
+      </c>
+      <c r="AB35">
+        <v>2.376973217490676e-07</v>
+      </c>
+      <c r="AC35">
+        <v>7.165775725580809e-11</v>
+      </c>
+      <c r="AG35">
+        <v>1.648909282830732e-07</v>
+      </c>
+      <c r="AK35">
+        <v>0.5384346486259262</v>
+      </c>
+      <c r="AL35">
+        <v>1.211051507279069e-09</v>
+      </c>
+    </row>
+    <row r="36" spans="1:47">
+      <c r="A36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36">
+        <v>-0.5083341704354523</v>
+      </c>
+      <c r="F36">
+        <v>-0.5081272940330199</v>
+      </c>
+      <c r="G36">
+        <v>-0.3487118732176723</v>
+      </c>
+      <c r="H36">
+        <v>-0.3465613362192216</v>
+      </c>
+      <c r="I36">
+        <v>0.3301471936312672</v>
+      </c>
+      <c r="J36">
+        <v>-0.8374769427250124</v>
+      </c>
+      <c r="K36">
+        <v>0.5481232570775002</v>
+      </c>
+      <c r="L36">
+        <v>-0.5083614247309381</v>
+      </c>
+      <c r="S36">
+        <v>0.5416846999084264</v>
+      </c>
+      <c r="U36">
+        <v>-0.3948981176752928</v>
+      </c>
+      <c r="Z36">
+        <v>-0.4201648953979695</v>
+      </c>
+      <c r="AB36">
+        <v>-0.3067958100115732</v>
+      </c>
+      <c r="AC36">
+        <v>0.4579080176638969</v>
+      </c>
+      <c r="AG36">
+        <v>-0.3047330723131345</v>
+      </c>
+      <c r="AK36">
+        <v>-0.6254691075956136</v>
+      </c>
+      <c r="AL36">
+        <v>-0.404589264499023</v>
+      </c>
+    </row>
+    <row r="37" spans="1:47">
+      <c r="A37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37">
+        <v>0.06344856152411772</v>
+      </c>
+      <c r="F37">
+        <v>0.06357426581329793</v>
+      </c>
+      <c r="G37">
+        <v>0.2217341694375485</v>
+      </c>
+      <c r="H37">
+        <v>0.2247915689996445</v>
+      </c>
+      <c r="I37">
+        <v>0.2489849396664873</v>
+      </c>
+      <c r="J37">
+        <v>0.0001856612718222113</v>
+      </c>
+      <c r="K37">
+        <v>0.04242588534856012</v>
+      </c>
+      <c r="L37">
+        <v>0.06343201428121402</v>
+      </c>
+      <c r="S37">
+        <v>0.04542042352570216</v>
+      </c>
+      <c r="U37">
+        <v>0.1622958036289833</v>
+      </c>
+      <c r="Z37">
+        <v>0.1347064071909735</v>
+      </c>
+      <c r="AB37">
+        <v>0.286016248948605</v>
+      </c>
+      <c r="AC37">
+        <v>0.0996591856901109</v>
+      </c>
+      <c r="AG37">
+        <v>0.289434434131919</v>
+      </c>
+      <c r="AK37">
+        <v>0.01674574476372595</v>
+      </c>
+      <c r="AL37">
+        <v>0.1513106723741232</v>
+      </c>
+    </row>
+    <row r="38" spans="1:47">
+      <c r="A38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L38">
+        <v>0.7205957924525418</v>
+      </c>
+    </row>
+    <row r="39" spans="1:47">
+      <c r="A39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L39">
+        <v>0.003644580993317001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:47">
+      <c r="A40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40">
+        <v>-0.337052378276458</v>
+      </c>
+      <c r="E40">
+        <v>-0.9053672900357858</v>
+      </c>
+      <c r="F40">
+        <v>-0.9054785706189905</v>
+      </c>
+      <c r="G40">
+        <v>-0.9774830813306493</v>
+      </c>
+      <c r="H40">
+        <v>-0.9773428550770762</v>
+      </c>
+      <c r="I40">
+        <v>0.9830159210651481</v>
+      </c>
+      <c r="J40">
+        <v>-0.5658097989938472</v>
+      </c>
+      <c r="K40">
+        <v>0.9229694497726252</v>
+      </c>
+      <c r="L40">
+        <v>-0.7069576884634409</v>
+      </c>
+      <c r="S40">
+        <v>0.9110898476537604</v>
+      </c>
+      <c r="T40">
+        <v>0.2100014502553015</v>
+      </c>
+      <c r="U40">
+        <v>-0.9651482441770478</v>
+      </c>
+      <c r="W40">
+        <v>0.9902238857574557</v>
+      </c>
+      <c r="Z40">
+        <v>-0.9636532230351456</v>
+      </c>
+      <c r="AB40">
+        <v>-0.9873381232510562</v>
+      </c>
+      <c r="AC40">
+        <v>0.9488394388393598</v>
+      </c>
+      <c r="AD40">
+        <v>-0.9698947597929455</v>
+      </c>
+      <c r="AE40">
+        <v>-0.9687053051492456</v>
+      </c>
+      <c r="AF40">
+        <v>-0.9874365559204411</v>
+      </c>
+      <c r="AG40">
+        <v>-0.9863654167959445</v>
+      </c>
+      <c r="AH40">
+        <v>-0.9846310844222141</v>
+      </c>
+      <c r="AI40">
+        <v>0.8457466128926473</v>
+      </c>
+      <c r="AJ40">
+        <v>0.9212284397780973</v>
+      </c>
+      <c r="AK40">
+        <v>0.1747578898831504</v>
+      </c>
+      <c r="AL40">
+        <v>-0.9636623695406404</v>
+      </c>
+      <c r="AM40">
+        <v>-0.6412940659649838</v>
+      </c>
+      <c r="AN40">
+        <v>-0.970214783973239</v>
+      </c>
+      <c r="AO40">
+        <v>0.9621934075282608</v>
+      </c>
+      <c r="AP40">
+        <v>0.9607400364463299</v>
+      </c>
+      <c r="AQ40">
+        <v>0.9567307738496971</v>
+      </c>
+      <c r="AR40">
+        <v>0.9614558505233851</v>
+      </c>
+      <c r="AS40">
+        <v>0.8858595724234495</v>
+      </c>
+      <c r="AT40">
+        <v>0.9396379756002261</v>
+      </c>
+      <c r="AU40">
+        <v>0.9406334166783533</v>
+      </c>
+    </row>
+    <row r="41" spans="1:47">
+      <c r="A41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41">
+        <v>0.2386222663341571</v>
+      </c>
+      <c r="E41">
+        <v>8.433323387964672e-06</v>
+      </c>
+      <c r="F41">
+        <v>8.37607024815825e-06</v>
+      </c>
+      <c r="G41">
+        <v>1.792658856929204e-09</v>
+      </c>
+      <c r="H41">
+        <v>1.860130122893871e-09</v>
+      </c>
+      <c r="I41">
+        <v>3.341066726205786e-10</v>
+      </c>
+      <c r="J41">
+        <v>0.03494542426003163</v>
+      </c>
+      <c r="K41">
+        <v>2.550815708538316e-06</v>
+      </c>
+      <c r="L41">
+        <v>0.004694230514468507</v>
+      </c>
+      <c r="S41">
+        <v>5.874662707789285e-06</v>
+      </c>
+      <c r="T41">
+        <v>0.47116063932401</v>
+      </c>
+      <c r="U41">
+        <v>2.399838647195164e-08</v>
+      </c>
+      <c r="W41">
+        <v>1.23416759901997e-11</v>
+      </c>
+      <c r="Z41">
+        <v>3.077644795986323e-08</v>
+      </c>
+      <c r="AB41">
+        <v>5.789853309767467e-11</v>
+      </c>
+      <c r="AC41">
+        <v>2.31743799059938e-07</v>
+      </c>
+      <c r="AD41">
+        <v>1.007304773752551e-08</v>
+      </c>
+      <c r="AE41">
+        <v>1.26768748952981e-08</v>
+      </c>
+      <c r="AF41">
+        <v>5.526159257390097e-11</v>
+      </c>
+      <c r="AG41">
+        <v>9.007833322208682e-11</v>
+      </c>
+      <c r="AH41">
+        <v>1.840794161061623e-10</v>
+      </c>
+      <c r="AI41">
+        <v>0.0001383061014299359</v>
+      </c>
+      <c r="AJ41">
+        <v>2.905672122504701e-06</v>
+      </c>
+      <c r="AK41">
+        <v>0.550141242982228</v>
+      </c>
+      <c r="AL41">
+        <v>3.073061965283778e-08</v>
+      </c>
+      <c r="AM41">
+        <v>0.01344451893140983</v>
+      </c>
+      <c r="AN41">
+        <v>9.453969599914357e-09</v>
+      </c>
+      <c r="AO41">
+        <v>3.885524792617375e-08</v>
+      </c>
+      <c r="AP41">
+        <v>4.857027064238533e-08</v>
+      </c>
+      <c r="AQ41">
+        <v>8.628860580702631e-08</v>
+      </c>
+      <c r="AR41">
+        <v>4.35610608539765e-08</v>
+      </c>
+      <c r="AS41">
+        <v>2.485775542540947e-05</v>
+      </c>
+      <c r="AT41">
+        <v>6.126673537910185e-07</v>
+      </c>
+      <c r="AU41">
+        <v>5.55703222537434e-07</v>
+      </c>
+    </row>
+    <row r="42" spans="1:47">
+      <c r="A42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42">
+        <v>-0.2955474073107024</v>
+      </c>
+      <c r="E42">
+        <v>-0.8847244329025417</v>
+      </c>
+      <c r="F42">
+        <v>-0.8848867289551366</v>
+      </c>
+      <c r="G42">
+        <v>-0.9725466808120182</v>
+      </c>
+      <c r="H42">
+        <v>-0.9728878060455534</v>
+      </c>
+      <c r="I42">
+        <v>0.975115754767475</v>
+      </c>
+      <c r="J42">
+        <v>-0.4911540549619989</v>
+      </c>
+      <c r="K42">
+        <v>0.901077373589205</v>
+      </c>
+      <c r="L42">
+        <v>-0.65335893413846</v>
+      </c>
+      <c r="S42">
+        <v>0.89180339322835</v>
+      </c>
+      <c r="T42">
+        <v>0.1585931589600877</v>
+      </c>
+      <c r="U42">
+        <v>-0.9618989981697659</v>
+      </c>
+      <c r="Z42">
+        <v>-0.9462378608373655</v>
+      </c>
+      <c r="AB42">
+        <v>-0.9685526509282044</v>
+      </c>
+      <c r="AC42">
+        <v>0.9404595966995728</v>
+      </c>
+      <c r="AD42">
+        <v>-0.9605659074033079</v>
+      </c>
+      <c r="AE42">
+        <v>-0.9598668372357977</v>
+      </c>
+      <c r="AF42">
+        <v>-0.9781662623655342</v>
+      </c>
+      <c r="AG42">
+        <v>-0.9736316867043558</v>
+      </c>
+      <c r="AH42">
+        <v>-0.9904054117861908</v>
+      </c>
+      <c r="AI42">
+        <v>0.8501127581258725</v>
+      </c>
+      <c r="AJ42">
+        <v>0.917241885795972</v>
+      </c>
+      <c r="AK42">
+        <v>0.1654029334124566</v>
+      </c>
+      <c r="AL42">
+        <v>-0.9595609400885192</v>
+      </c>
+      <c r="AM42">
+        <v>-0.7140689228066256</v>
+      </c>
+      <c r="AN42">
+        <v>-0.9811750302655907</v>
+      </c>
+      <c r="AO42">
+        <v>0.9593500779300981</v>
+      </c>
+      <c r="AP42">
+        <v>0.9572868116073469</v>
+      </c>
+      <c r="AQ42">
+        <v>0.9823441207595814</v>
+      </c>
+      <c r="AR42">
+        <v>0.9582996296557827</v>
+      </c>
+      <c r="AS42">
+        <v>0.8695608404642443</v>
+      </c>
+      <c r="AT42">
+        <v>0.929088012333427</v>
+      </c>
+      <c r="AU42">
+        <v>0.9303143020024109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:47">
+      <c r="A43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43">
+        <v>0.3049442449534901</v>
+      </c>
+      <c r="E43">
+        <v>2.631131992867193e-05</v>
+      </c>
+      <c r="F43">
+        <v>2.609934142240472e-05</v>
+      </c>
+      <c r="G43">
+        <v>5.826041937438598e-09</v>
+      </c>
+      <c r="H43">
+        <v>5.408954422463145e-09</v>
+      </c>
+      <c r="I43">
+        <v>3.249128930090999e-09</v>
+      </c>
+      <c r="J43">
+        <v>0.07450676495016632</v>
+      </c>
+      <c r="K43">
+        <v>1.089872500724548e-05</v>
+      </c>
+      <c r="L43">
+        <v>0.01128182721491898</v>
+      </c>
+      <c r="S43">
+        <v>1.82763406843793e-05</v>
+      </c>
+      <c r="T43">
+        <v>0.5881466472208743</v>
+      </c>
+      <c r="U43">
+        <v>4.06803532110155e-08</v>
+      </c>
+      <c r="Z43">
+        <v>3.103013469193061e-07</v>
+      </c>
+      <c r="AB43">
+        <v>1.304813050015328e-08</v>
+      </c>
+      <c r="AC43">
+        <v>5.653216259042673e-07</v>
+      </c>
+      <c r="AD43">
+        <v>4.985832607501287e-08</v>
+      </c>
+      <c r="AE43">
+        <v>5.531794236806364e-08</v>
+      </c>
+      <c r="AF43">
+        <v>1.492291929345981e-09</v>
+      </c>
+      <c r="AG43">
+        <v>4.584785944192263e-09</v>
+      </c>
+      <c r="AH43">
+        <v>1.103326760770804e-11</v>
+      </c>
+      <c r="AI43">
+        <v>0.0001175818047812662</v>
+      </c>
+      <c r="AJ43">
+        <v>3.873133041733897e-06</v>
+      </c>
+      <c r="AK43">
+        <v>0.5720078419081663</v>
+      </c>
+      <c r="AL43">
+        <v>5.785791240982338e-08</v>
+      </c>
+      <c r="AM43">
+        <v>0.004120978218154759</v>
+      </c>
+      <c r="AN43">
+        <v>6.170403395787744e-10</v>
+      </c>
+      <c r="AO43">
+        <v>5.966441047550259e-08</v>
+      </c>
+      <c r="AP43">
+        <v>7.994236006451691e-08</v>
+      </c>
+      <c r="AQ43">
+        <v>4.210559151843959e-10</v>
+      </c>
+      <c r="AR43">
+        <v>6.937498547492229e-08</v>
+      </c>
+      <c r="AS43">
+        <v>5.33758538471735e-05</v>
+      </c>
+      <c r="AT43">
+        <v>1.573558413627768e-06</v>
+      </c>
+      <c r="AU43">
+        <v>1.421020521795334e-06</v>
+      </c>
+    </row>
+    <row r="44" spans="1:47">
+      <c r="A44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44">
+        <v>0.4543425373336225</v>
+      </c>
+      <c r="E44">
+        <v>0.9725633869920463</v>
+      </c>
+      <c r="F44">
+        <v>0.9726009210149712</v>
+      </c>
+      <c r="G44">
+        <v>0.9890784533647471</v>
+      </c>
+      <c r="H44">
+        <v>0.9882971426607381</v>
+      </c>
+      <c r="I44">
+        <v>-0.9945519272713937</v>
+      </c>
+      <c r="J44">
+        <v>0.7192981492280097</v>
+      </c>
+      <c r="K44">
+        <v>-0.9871095419423442</v>
+      </c>
+      <c r="L44">
+        <v>0.7603586185904162</v>
+      </c>
+      <c r="M44">
+        <v>-0.9851822166903175</v>
+      </c>
+      <c r="N44">
+        <v>0.588376329359044</v>
+      </c>
+      <c r="O44">
+        <v>-0.9781708479013816</v>
+      </c>
+      <c r="P44">
+        <v>-0.9934358723529343</v>
+      </c>
+      <c r="Q44">
+        <v>-0.9920047254605497</v>
+      </c>
+      <c r="R44">
+        <v>-0.9903139884127873</v>
+      </c>
+      <c r="S44">
+        <v>-0.9810479579051454</v>
+      </c>
+      <c r="T44">
+        <v>-0.4142743428914014</v>
+      </c>
+      <c r="U44">
+        <v>0.9926838987952822</v>
+      </c>
+      <c r="V44">
+        <v>-0.9682416385248959</v>
+      </c>
+      <c r="W44">
+        <v>-0.9519393066258003</v>
+      </c>
+      <c r="Y44">
+        <v>0.9982937067750133</v>
+      </c>
+      <c r="Z44">
+        <v>0.9995493457874708</v>
+      </c>
+      <c r="AB44">
+        <v>0.9876678059626078</v>
+      </c>
+      <c r="AC44">
+        <v>-0.9928090357630674</v>
+      </c>
+      <c r="AD44">
+        <v>0.9975375109332488</v>
+      </c>
+      <c r="AE44">
+        <v>0.9970027686544122</v>
+      </c>
+      <c r="AF44">
+        <v>0.9856742837563613</v>
+      </c>
+      <c r="AG44">
+        <v>0.9886406815410791</v>
+      </c>
+      <c r="AH44">
+        <v>0.9710785376372072</v>
+      </c>
+      <c r="AI44">
+        <v>-0.9213737248192232</v>
+      </c>
+      <c r="AJ44">
+        <v>-0.9755724966672437</v>
+      </c>
+      <c r="AL44">
+        <v>0.9931509293108064</v>
+      </c>
+      <c r="AM44">
+        <v>0.4831349670944866</v>
+      </c>
+      <c r="AN44">
+        <v>0.9702506260760476</v>
+      </c>
+      <c r="AO44">
+        <v>-0.991377702601463</v>
+      </c>
+      <c r="AP44">
+        <v>-0.9916300244870887</v>
+      </c>
+      <c r="AQ44">
+        <v>-0.9087538701743292</v>
+      </c>
+      <c r="AR44">
+        <v>-0.9915159077579869</v>
+      </c>
+      <c r="AS44">
+        <v>-0.964045543770403</v>
+      </c>
+      <c r="AT44">
+        <v>-0.990260329749723</v>
+      </c>
+      <c r="AU44">
+        <v>-0.9905136748410625</v>
+      </c>
+    </row>
+    <row r="45" spans="1:47">
+      <c r="A45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45">
+        <v>0.1026659721992082</v>
+      </c>
+      <c r="E45">
+        <v>5.805012401313574e-09</v>
+      </c>
+      <c r="F45">
+        <v>5.757994720732477e-09</v>
+      </c>
+      <c r="G45">
+        <v>2.39337679267119e-11</v>
+      </c>
+      <c r="H45">
+        <v>3.616823517097917e-11</v>
+      </c>
+      <c r="I45">
+        <v>3.73141710703255e-13</v>
+      </c>
+      <c r="J45">
+        <v>0.003735662465913866</v>
+      </c>
+      <c r="K45">
+        <v>6.442810734099338e-11</v>
+      </c>
+      <c r="L45">
+        <v>0.001594969578254344</v>
+      </c>
+      <c r="M45">
+        <v>1.480339313500906e-10</v>
+      </c>
+      <c r="N45">
+        <v>0.02687526369687849</v>
+      </c>
+      <c r="O45">
+        <v>1.490427215285746e-09</v>
+      </c>
+      <c r="P45">
+        <v>1.138773716906898e-12</v>
+      </c>
+      <c r="Q45">
+        <v>3.707148011454144e-12</v>
+      </c>
+      <c r="R45">
+        <v>1.167698202704115e-11</v>
+      </c>
+      <c r="S45">
+        <v>6.422805504025287e-10</v>
+      </c>
+      <c r="T45">
+        <v>0.1408350584633311</v>
+      </c>
+      <c r="U45">
+        <v>2.17947470344524e-12</v>
+      </c>
+      <c r="V45">
+        <v>1.38324623922288e-08</v>
+      </c>
+      <c r="W45">
+        <v>1.603535341817455e-07</v>
+      </c>
+      <c r="Y45">
+        <v>3.549976953352078e-16</v>
+      </c>
+      <c r="Z45">
+        <v>1.208184270987696e-19</v>
+      </c>
+      <c r="AB45">
+        <v>4.945719621844721e-11</v>
+      </c>
+      <c r="AC45">
+        <v>1.965681579252592e-12</v>
+      </c>
+      <c r="AD45">
+        <v>3.202175165607871e-15</v>
+      </c>
+      <c r="AE45">
+        <v>1.039974361374551e-14</v>
+      </c>
+      <c r="AF45">
+        <v>1.210097798850366e-10</v>
+      </c>
+      <c r="AG45">
+        <v>3.026987764200093e-11</v>
+      </c>
+      <c r="AH45">
+        <v>7.938608144408083e-09</v>
+      </c>
+      <c r="AI45">
+        <v>2.874588171539767e-06</v>
+      </c>
+      <c r="AJ45">
+        <v>2.910206501938704e-09</v>
+      </c>
+      <c r="AL45">
+        <v>1.468585860286308e-12</v>
+      </c>
+      <c r="AM45">
+        <v>0.08010926492851531</v>
+      </c>
+      <c r="AN45">
+        <v>9.386645317927242e-09</v>
+      </c>
+      <c r="AO45">
+        <v>5.823608792783881e-12</v>
+      </c>
+      <c r="AP45">
+        <v>4.875677055337576e-12</v>
+      </c>
+      <c r="AQ45">
+        <v>6.828231830351728e-06</v>
+      </c>
+      <c r="AR45">
+        <v>5.287075890738752e-12</v>
+      </c>
+      <c r="AS45">
+        <v>2.886089291469755e-08</v>
+      </c>
+      <c r="AT45">
+        <v>1.206913373594162e-11</v>
+      </c>
+      <c r="AU45">
+        <v>1.030944492816221e-11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:47">
+      <c r="A46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46">
+        <v>0.4766285224780253</v>
+      </c>
+      <c r="E46">
+        <v>0.9770277132372235</v>
+      </c>
+      <c r="F46">
+        <v>0.9770421937875531</v>
+      </c>
+      <c r="G46">
+        <v>0.9819256890893964</v>
+      </c>
+      <c r="H46">
+        <v>0.9809457235011463</v>
+      </c>
+      <c r="I46">
+        <v>-0.990019470324777</v>
+      </c>
+      <c r="J46">
+        <v>0.7394962518364822</v>
+      </c>
+      <c r="K46">
+        <v>-0.9883423553136045</v>
+      </c>
+      <c r="L46">
+        <v>0.7670795862605789</v>
+      </c>
+      <c r="M46">
+        <v>-0.9843658090616806</v>
+      </c>
+      <c r="N46">
+        <v>0.6010650451982235</v>
+      </c>
+      <c r="O46">
+        <v>-0.976361184324861</v>
+      </c>
+      <c r="P46">
+        <v>-0.9955073372422688</v>
+      </c>
+      <c r="Q46">
+        <v>-0.9933957306041525</v>
+      </c>
+      <c r="R46">
+        <v>-0.9884042854383063</v>
+      </c>
+      <c r="S46">
+        <v>-0.9846989401944333</v>
+      </c>
+      <c r="T46">
+        <v>-0.430092568388652</v>
+      </c>
+      <c r="U46">
+        <v>0.9882187253204429</v>
+      </c>
+      <c r="V46">
+        <v>-0.9575059429196583</v>
+      </c>
+      <c r="W46">
+        <v>-0.9389838454819578</v>
+      </c>
+      <c r="Z46">
+        <v>0.9995883713690361</v>
+      </c>
+      <c r="AB46">
+        <v>0.9838575260981732</v>
+      </c>
+      <c r="AC46">
+        <v>-0.9902497792762387</v>
+      </c>
+      <c r="AD46">
+        <v>0.9953655165916578</v>
+      </c>
+      <c r="AE46">
+        <v>0.9958148449564134</v>
+      </c>
+      <c r="AF46">
+        <v>0.9808377430873649</v>
+      </c>
+      <c r="AG46">
+        <v>0.9835625560900612</v>
+      </c>
+      <c r="AH46">
+        <v>0.9635727346046076</v>
+      </c>
+      <c r="AI46">
+        <v>-0.9171469894732662</v>
+      </c>
+      <c r="AJ46">
+        <v>-0.9718024933367171</v>
+      </c>
+      <c r="AL46">
+        <v>0.9888327096916036</v>
+      </c>
+      <c r="AM46">
+        <v>0.4526951341128885</v>
+      </c>
+      <c r="AN46">
+        <v>0.960240322438897</v>
+      </c>
+      <c r="AO46">
+        <v>-0.986585490345951</v>
+      </c>
+      <c r="AP46">
+        <v>-0.9870253988757225</v>
+      </c>
+      <c r="AQ46">
+        <v>-0.8942260812272974</v>
+      </c>
+      <c r="AR46">
+        <v>-0.9868199298308473</v>
+      </c>
+      <c r="AS46">
+        <v>-0.9635637521738534</v>
+      </c>
+      <c r="AT46">
+        <v>-0.9882113825007494</v>
+      </c>
+      <c r="AU46">
+        <v>-0.9883767447051084</v>
+      </c>
+    </row>
+    <row r="47" spans="1:47">
+      <c r="A47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47">
+        <v>0.08486805365823875</v>
+      </c>
+      <c r="E47">
+        <v>2.019489846889953e-09</v>
+      </c>
+      <c r="F47">
+        <v>2.011926972995188e-09</v>
+      </c>
+      <c r="G47">
+        <v>4.841523131396611e-10</v>
+      </c>
+      <c r="H47">
+        <v>6.632047340178505e-10</v>
+      </c>
+      <c r="I47">
+        <v>1.396712750716893e-11</v>
+      </c>
+      <c r="J47">
+        <v>0.002504787324553949</v>
+      </c>
+      <c r="K47">
+        <v>3.534133969924215e-11</v>
+      </c>
+      <c r="L47">
+        <v>0.001366191087198823</v>
+      </c>
+      <c r="M47">
+        <v>2.038684227796888e-10</v>
+      </c>
+      <c r="N47">
+        <v>0.0230003815382447</v>
+      </c>
+      <c r="O47">
+        <v>2.394112580997768e-09</v>
+      </c>
+      <c r="P47">
+        <v>1.17579120984409e-13</v>
+      </c>
+      <c r="Q47">
+        <v>1.181099691416639e-12</v>
+      </c>
+      <c r="R47">
+        <v>3.423427371708278e-11</v>
+      </c>
+      <c r="S47">
+        <v>1.792827416687977e-10</v>
+      </c>
+      <c r="T47">
+        <v>0.1247871105644512</v>
+      </c>
+      <c r="U47">
+        <v>3.764057306187084e-11</v>
+      </c>
+      <c r="V47">
+        <v>7.754996267843804e-08</v>
+      </c>
+      <c r="W47">
+        <v>6.526605876266717e-07</v>
+      </c>
+      <c r="Z47">
+        <v>7.01685237553953e-20</v>
+      </c>
+      <c r="AB47">
+        <v>2.467414192173388e-10</v>
+      </c>
+      <c r="AC47">
+        <v>1.214751393940732e-11</v>
+      </c>
+      <c r="AD47">
+        <v>1.416390688312568e-13</v>
+      </c>
+      <c r="AE47">
+        <v>7.68888324741126e-14</v>
+      </c>
+      <c r="AF47">
+        <v>6.859169602685411e-10</v>
+      </c>
+      <c r="AG47">
+        <v>2.748849287904423e-10</v>
+      </c>
+      <c r="AH47">
+        <v>3.118218102836166e-08</v>
+      </c>
+      <c r="AI47">
+        <v>3.899037316271151e-06</v>
+      </c>
+      <c r="AJ47">
+        <v>6.829178914258617e-09</v>
+      </c>
+      <c r="AL47">
+        <v>2.733778688367744e-11</v>
+      </c>
+      <c r="AM47">
+        <v>0.1040761476522265</v>
+      </c>
+      <c r="AN47">
+        <v>5.234267669189844e-08</v>
+      </c>
+      <c r="AO47">
+        <v>8.17379717770779e-11</v>
+      </c>
+      <c r="AP47">
+        <v>6.698085066756562e-11</v>
+      </c>
+      <c r="AQ47">
+        <v>1.604101682316749e-05</v>
+      </c>
+      <c r="AR47">
+        <v>7.35699903121067e-11</v>
+      </c>
+      <c r="AS47">
+        <v>3.12277341062237e-08</v>
+      </c>
+      <c r="AT47">
+        <v>3.778095494420717e-11</v>
+      </c>
+      <c r="AU47">
+        <v>3.472297552844561e-11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:47">
+      <c r="A48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I48">
+        <v>-0.9928301244308864</v>
+      </c>
+      <c r="J48">
+        <v>0.7287777748612976</v>
+      </c>
+      <c r="K48">
+        <v>-0.9877225466728544</v>
+      </c>
+      <c r="L48">
+        <v>0.7638222465391962</v>
+      </c>
+      <c r="U48">
+        <v>0.990725885508966</v>
+      </c>
+      <c r="AC48">
+        <v>-0.9916686851059089</v>
+      </c>
+      <c r="AL48">
+        <v>0.991243054212832</v>
+      </c>
+    </row>
+    <row r="49" spans="1:47">
+      <c r="A49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I49">
+        <v>1.931433625576112e-12</v>
+      </c>
+      <c r="J49">
+        <v>0.003109723030915773</v>
+      </c>
+      <c r="K49">
+        <v>4.816020617169566e-11</v>
+      </c>
+      <c r="L49">
+        <v>0.00147355321549967</v>
+      </c>
+      <c r="U49">
+        <v>9.004926679680365e-12</v>
+      </c>
+      <c r="AC49">
+        <v>4.742498497878865e-12</v>
+      </c>
+      <c r="AL49">
+        <v>6.389169830252392e-12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:47">
+      <c r="A50" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50">
+        <v>0.4128904572522086</v>
+      </c>
+      <c r="E50">
+        <v>0.9466859508677524</v>
+      </c>
+      <c r="F50">
+        <v>0.9467123731590081</v>
+      </c>
+      <c r="G50">
+        <v>0.9796535068593761</v>
+      </c>
+      <c r="H50">
+        <v>0.9787431374121139</v>
+      </c>
+      <c r="I50">
+        <v>-0.9908757677081583</v>
+      </c>
+      <c r="J50">
+        <v>0.6698890851744963</v>
+      </c>
+      <c r="K50">
+        <v>-0.9564505147965419</v>
+      </c>
+      <c r="L50">
+        <v>0.7720031453100399</v>
+      </c>
+      <c r="M50">
+        <v>-0.9771081938136711</v>
+      </c>
+      <c r="N50">
+        <v>0.596144038535008</v>
+      </c>
+      <c r="O50">
+        <v>-0.9750090041405516</v>
+      </c>
+      <c r="P50">
+        <v>-0.9735818803117907</v>
+      </c>
+      <c r="Q50">
+        <v>-0.9761453764126707</v>
+      </c>
+      <c r="R50">
+        <v>-0.9628386330407854</v>
+      </c>
+      <c r="S50">
+        <v>-0.9466400828523209</v>
+      </c>
+      <c r="T50">
+        <v>-0.3047773372376734</v>
+      </c>
+      <c r="U50">
+        <v>0.9749654020398899</v>
+      </c>
+      <c r="V50">
+        <v>-0.987242394131283</v>
+      </c>
+      <c r="W50">
+        <v>-0.9690483542523481</v>
+      </c>
+      <c r="X50">
+        <v>0.9875980361071387</v>
+      </c>
+      <c r="Y50">
+        <v>0.983279568720676</v>
+      </c>
+      <c r="Z50">
+        <v>0.9861582943155126</v>
+      </c>
+      <c r="AB50">
+        <v>0.9992908278307965</v>
+      </c>
+      <c r="AC50">
+        <v>-0.9684039717320407</v>
+      </c>
+      <c r="AD50">
+        <v>0.9874216980812073</v>
+      </c>
+      <c r="AE50">
+        <v>0.9869465694664521</v>
+      </c>
+      <c r="AF50">
+        <v>0.9966210887822876</v>
+      </c>
+      <c r="AG50">
+        <v>0.998038446645792</v>
+      </c>
+      <c r="AH50">
+        <v>0.9807024262227295</v>
+      </c>
+      <c r="AI50">
+        <v>-0.8587039916328887</v>
+      </c>
+      <c r="AJ50">
+        <v>-0.936726934281484</v>
+      </c>
+      <c r="AL50">
+        <v>0.9744266103965649</v>
+      </c>
+      <c r="AM50">
+        <v>0.5395735256891183</v>
+      </c>
+      <c r="AN50">
+        <v>0.9605195157787291</v>
+      </c>
+      <c r="AO50">
+        <v>-0.9716076876532233</v>
+      </c>
+      <c r="AP50">
+        <v>-0.9710535601357329</v>
+      </c>
+      <c r="AQ50">
+        <v>-0.9225890920876503</v>
+      </c>
+      <c r="AR50">
+        <v>-0.9713317442000902</v>
+      </c>
+      <c r="AS50">
+        <v>-0.9189088480942385</v>
+      </c>
+      <c r="AT50">
+        <v>-0.9609631159555829</v>
+      </c>
+      <c r="AU50">
+        <v>-0.9615794614957973</v>
+      </c>
+    </row>
+    <row r="51" spans="1:47">
+      <c r="A51" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51">
+        <v>0.1423013974149024</v>
+      </c>
+      <c r="E51">
+        <v>2.953931110243777e-07</v>
+      </c>
+      <c r="F51">
+        <v>2.94532854010314e-07</v>
+      </c>
+      <c r="G51">
+        <v>9.804338355227009e-10</v>
+      </c>
+      <c r="H51">
+        <v>1.272394234314262e-09</v>
+      </c>
+      <c r="I51">
+        <v>8.168897627524226e-12</v>
+      </c>
+      <c r="J51">
+        <v>0.008764781545352084</v>
+      </c>
+      <c r="K51">
+        <v>8.96419932733378e-08</v>
+      </c>
+      <c r="L51">
+        <v>0.001215823190012485</v>
+      </c>
+      <c r="M51">
+        <v>1.977753856272025e-09</v>
+      </c>
+      <c r="N51">
+        <v>0.02444961510323871</v>
+      </c>
+      <c r="O51">
+        <v>3.332891360972287e-09</v>
+      </c>
+      <c r="P51">
+        <v>4.636492349847938e-09</v>
+      </c>
+      <c r="Q51">
+        <v>2.527103127649186e-09</v>
+      </c>
+      <c r="R51">
+        <v>3.509166518887915e-08</v>
+      </c>
+      <c r="S51">
+        <v>2.968914138422294e-07</v>
+      </c>
+      <c r="T51">
+        <v>0.2893608325889648</v>
+      </c>
+      <c r="U51">
+        <v>3.367615737907913e-09</v>
+      </c>
+      <c r="V51">
+        <v>6.056261524729854e-11</v>
+      </c>
+      <c r="W51">
+        <v>1.187445131160431e-08</v>
+      </c>
+      <c r="X51">
+        <v>5.115227156779554e-11</v>
+      </c>
+      <c r="Y51">
+        <v>3.043441761831183e-10</v>
+      </c>
+      <c r="Z51">
+        <v>9.856279405130593e-11</v>
+      </c>
+      <c r="AB51">
+        <v>1.833758037326798e-18</v>
+      </c>
+      <c r="AC51">
+        <v>1.341834357454417e-08</v>
+      </c>
+      <c r="AD51">
+        <v>5.565309536971678e-11</v>
+      </c>
+      <c r="AE51">
+        <v>6.944816950605697e-11</v>
+      </c>
+      <c r="AF51">
+        <v>2.133074740438561e-14</v>
+      </c>
+      <c r="AG51">
+        <v>8.189673042241574e-16</v>
+      </c>
+      <c r="AH51">
+        <v>7.152880382268411e-10</v>
+      </c>
+      <c r="AI51">
+        <v>8.414096337794014e-05</v>
+      </c>
+      <c r="AJ51">
+        <v>8.075676703805924e-07</v>
+      </c>
+      <c r="AL51">
+        <v>3.822100734522726e-09</v>
+      </c>
+      <c r="AM51">
+        <v>0.04643510051392448</v>
+      </c>
+      <c r="AN51">
+        <v>5.020622336663526e-08</v>
+      </c>
+      <c r="AO51">
+        <v>7.114190667876606e-09</v>
+      </c>
+      <c r="AP51">
+        <v>7.979401283495056e-09</v>
+      </c>
+      <c r="AQ51">
+        <v>2.625119337182449e-06</v>
+      </c>
+      <c r="AR51">
+        <v>7.534749764720551e-09</v>
+      </c>
+      <c r="AS51">
+        <v>3.440665014290775e-06</v>
+      </c>
+      <c r="AT51">
+        <v>4.696051805099604e-08</v>
+      </c>
+      <c r="AU51">
+        <v>4.274104445072715e-08</v>
+      </c>
+    </row>
+    <row r="52" spans="1:47">
+      <c r="A52" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I52">
+        <v>-0.9905092350360324</v>
+      </c>
+      <c r="J52">
+        <v>0.6704698230152183</v>
+      </c>
+      <c r="K52">
+        <v>-0.9566122973508265</v>
+      </c>
+      <c r="L52">
+        <v>0.7822742161768277</v>
+      </c>
+      <c r="U52">
+        <v>0.975328353139388</v>
+      </c>
+      <c r="Z52">
+        <v>0.9864844669343757</v>
+      </c>
+      <c r="AC52">
+        <v>-0.9678205201176489</v>
+      </c>
+      <c r="AL52">
+        <v>0.9748329382219787</v>
+      </c>
+    </row>
+    <row r="53" spans="1:47">
+      <c r="A53" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I53">
+        <v>1.033833035400706e-11</v>
+      </c>
+      <c r="J53">
+        <v>0.008685041179885783</v>
+      </c>
+      <c r="K53">
+        <v>8.769330768225701e-08</v>
+      </c>
+      <c r="L53">
+        <v>0.0009445364595399481</v>
+      </c>
+      <c r="U53">
+        <v>3.087512630126632e-09</v>
+      </c>
+      <c r="Z53">
+        <v>8.548297023239476e-11</v>
+      </c>
+      <c r="AC53">
+        <v>1.495643930230955e-08</v>
+      </c>
+      <c r="AL53">
+        <v>3.4749566633048e-09</v>
+      </c>
+    </row>
+    <row r="54" spans="1:47">
+      <c r="A54" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I54">
+        <v>0.9877284638102559</v>
+      </c>
+      <c r="K54">
+        <v>0.9910204975261052</v>
+      </c>
+      <c r="L54">
+        <v>-0.7288399428650227</v>
+      </c>
+      <c r="U54">
+        <v>-0.996658508180134</v>
+      </c>
+      <c r="AL54">
+        <v>-0.9973776977943547</v>
+      </c>
+    </row>
+    <row r="55" spans="1:47">
+      <c r="A55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I55">
+        <v>4.802172039156946e-11</v>
+      </c>
+      <c r="K55">
+        <v>7.423936876108637e-12</v>
+      </c>
+      <c r="L55">
+        <v>0.00310591085799007</v>
+      </c>
+      <c r="U55">
+        <v>1.995366480321184e-14</v>
+      </c>
+      <c r="AL55">
+        <v>4.668171309450493e-15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:47">
+      <c r="A56" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E56">
+        <v>0.971290435836466</v>
+      </c>
+      <c r="F56">
+        <v>0.9713419547815051</v>
+      </c>
+      <c r="G56">
+        <v>0.9922943589444312</v>
+      </c>
+      <c r="H56">
+        <v>0.9916394838435622</v>
+      </c>
+      <c r="I56">
+        <v>-0.9973273146153088</v>
+      </c>
+      <c r="J56">
+        <v>0.6891274230884775</v>
+      </c>
+      <c r="K56">
+        <v>-0.9816425476976391</v>
+      </c>
+      <c r="L56">
+        <v>0.7447911373387505</v>
+      </c>
+      <c r="S56">
+        <v>-0.977947953444215</v>
+      </c>
+      <c r="T56">
+        <v>-0.3831530327337219</v>
+      </c>
+      <c r="U56">
+        <v>0.9961054984260991</v>
+      </c>
+      <c r="Z56">
+        <v>0.9968906740929351</v>
+      </c>
+      <c r="AB56">
+        <v>0.9870255542745591</v>
+      </c>
+      <c r="AC56">
+        <v>-0.9941992663269269</v>
+      </c>
+      <c r="AE56">
+        <v>0.999610155970534</v>
+      </c>
+      <c r="AF56">
+        <v>0.9905997022934194</v>
+      </c>
+      <c r="AG56">
+        <v>0.991937633380586</v>
+      </c>
+      <c r="AH56">
+        <v>0.9813483950493174</v>
+      </c>
+      <c r="AI56">
+        <v>-0.9213211607799127</v>
+      </c>
+      <c r="AJ56">
+        <v>-0.9758211486796412</v>
+      </c>
+      <c r="AL56">
+        <v>0.9960976522313765</v>
+      </c>
+      <c r="AM56">
+        <v>0.5211238488285017</v>
+      </c>
+      <c r="AN56">
+        <v>0.9798512462661617</v>
+      </c>
+      <c r="AO56">
+        <v>-0.994684715832626</v>
+      </c>
+      <c r="AP56">
+        <v>-0.9945815358173415</v>
+      </c>
+      <c r="AQ56">
+        <v>-0.9266482780370907</v>
+      </c>
+      <c r="AR56">
+        <v>-0.9946406181687838</v>
+      </c>
+      <c r="AS56">
+        <v>-0.9585525755731383</v>
+      </c>
+      <c r="AT56">
+        <v>-0.9893812433024509</v>
+      </c>
+      <c r="AU56">
+        <v>-0.9897725189863175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:47">
+      <c r="A57" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E57">
+        <v>7.599445856832785e-09</v>
+      </c>
+      <c r="F57">
+        <v>7.518828864983942e-09</v>
+      </c>
+      <c r="G57">
+        <v>2.972779272858295e-12</v>
+      </c>
+      <c r="H57">
+        <v>4.84280723412817e-12</v>
+      </c>
+      <c r="I57">
+        <v>5.232273524633021e-15</v>
+      </c>
+      <c r="J57">
+        <v>0.006407646218931959</v>
+      </c>
+      <c r="K57">
+        <v>5.311541419237639e-10</v>
+      </c>
+      <c r="L57">
+        <v>0.002242511684876736</v>
+      </c>
+      <c r="S57">
+        <v>1.583338386712966e-09</v>
+      </c>
+      <c r="T57">
+        <v>0.1762925903726802</v>
+      </c>
+      <c r="U57">
+        <v>4.995467988469392e-14</v>
+      </c>
+      <c r="Z57">
+        <v>1.295967367420445e-14</v>
+      </c>
+      <c r="AB57">
+        <v>6.697605978768693e-11</v>
+      </c>
+      <c r="AC57">
+        <v>5.432316352708349e-13</v>
+      </c>
+      <c r="AE57">
+        <v>5.063776072916674e-20</v>
+      </c>
+      <c r="AF57">
+        <v>9.762864188443545e-12</v>
+      </c>
+      <c r="AG57">
+        <v>3.897196123485437e-12</v>
+      </c>
+      <c r="AH57">
+        <v>5.839391877356535e-10</v>
+      </c>
+      <c r="AI57">
+        <v>2.885802568262342e-06</v>
+      </c>
+      <c r="AJ57">
+        <v>2.738400331639113e-09</v>
+      </c>
+      <c r="AL57">
+        <v>5.056073585139446e-14</v>
+      </c>
+      <c r="AM57">
+        <v>0.05601794081249357</v>
+      </c>
+      <c r="AN57">
+        <v>9.250293693027227e-10</v>
+      </c>
+      <c r="AO57">
+        <v>3.218838485353446e-13</v>
+      </c>
+      <c r="AP57">
+        <v>3.611613554081307e-13</v>
+      </c>
+      <c r="AQ57">
+        <v>1.917301269909481e-06</v>
+      </c>
+      <c r="AR57">
+        <v>3.382106903612742e-13</v>
+      </c>
+      <c r="AS57">
+        <v>6.692494488637376e-08</v>
+      </c>
+      <c r="AT57">
+        <v>2.023164572052038e-11</v>
+      </c>
+      <c r="AU57">
+        <v>1.616467256632257e-11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:47">
+      <c r="A58" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E58">
+        <v>0.9700773919102734</v>
+      </c>
+      <c r="F58">
+        <v>0.970125842345391</v>
+      </c>
+      <c r="G58">
+        <v>0.9902276969955038</v>
+      </c>
+      <c r="H58">
+        <v>0.9895463856332363</v>
+      </c>
+      <c r="I58">
+        <v>-0.9971419717113117</v>
+      </c>
+      <c r="J58">
+        <v>0.6857444510476938</v>
+      </c>
+      <c r="K58">
+        <v>-0.9794502666031357</v>
+      </c>
+      <c r="L58">
+        <v>0.7379300231646105</v>
+      </c>
+      <c r="S58">
+        <v>-0.9765764771113722</v>
+      </c>
+      <c r="T58">
+        <v>-0.3741277610168345</v>
+      </c>
+      <c r="U58">
+        <v>0.9947197756722411</v>
+      </c>
+      <c r="Z58">
+        <v>0.9969047818819894</v>
+      </c>
+      <c r="AB58">
+        <v>0.9864327782693046</v>
+      </c>
+      <c r="AC58">
+        <v>-0.992561528797575</v>
+      </c>
+      <c r="AF58">
+        <v>0.9906525108403577</v>
+      </c>
+      <c r="AG58">
+        <v>0.9911285758123152</v>
+      </c>
+      <c r="AH58">
+        <v>0.9820894940560639</v>
+      </c>
+      <c r="AI58">
+        <v>-0.9165142424851696</v>
+      </c>
+      <c r="AJ58">
+        <v>-0.9724900037241303</v>
+      </c>
+      <c r="AL58">
+        <v>0.9945806748846141</v>
+      </c>
+      <c r="AM58">
+        <v>0.5221747809681798</v>
+      </c>
+      <c r="AN58">
+        <v>0.9781216432729271</v>
+      </c>
+      <c r="AO58">
+        <v>-0.9929326328552877</v>
+      </c>
+      <c r="AP58">
+        <v>-0.9927575245689646</v>
+      </c>
+      <c r="AQ58">
+        <v>-0.9269143045777072</v>
+      </c>
+      <c r="AR58">
+        <v>-0.9928515966974009</v>
+      </c>
+      <c r="AS58">
+        <v>-0.95429540451567</v>
+      </c>
+      <c r="AT58">
+        <v>-0.9870063408293722</v>
+      </c>
+      <c r="AU58">
+        <v>-0.9874214026080254</v>
+      </c>
+    </row>
+    <row r="59" spans="1:47">
+      <c r="A59" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E59">
+        <v>9.71576420311552e-09</v>
+      </c>
+      <c r="F59">
+        <v>9.62276622676951e-09</v>
+      </c>
+      <c r="G59">
+        <v>1.231293649262924e-11</v>
+      </c>
+      <c r="H59">
+        <v>1.842223700835544e-11</v>
+      </c>
+      <c r="I59">
+        <v>7.820416294431492e-15</v>
+      </c>
+      <c r="J59">
+        <v>0.006781453350277589</v>
+      </c>
+      <c r="K59">
+        <v>1.040225204220492e-09</v>
+      </c>
+      <c r="L59">
+        <v>0.00258683842296519</v>
+      </c>
+      <c r="S59">
+        <v>2.267283298665153e-09</v>
+      </c>
+      <c r="T59">
+        <v>0.187562734239752</v>
+      </c>
+      <c r="U59">
+        <v>3.093764103764236e-13</v>
+      </c>
+      <c r="Z59">
+        <v>1.261122551834019e-14</v>
+      </c>
+      <c r="AB59">
+        <v>8.745360252525845e-11</v>
+      </c>
+      <c r="AC59">
+        <v>2.406919189717077e-12</v>
+      </c>
+      <c r="AF59">
+        <v>9.439451261425309e-12</v>
+      </c>
+      <c r="AG59">
+        <v>6.905285385025366e-12</v>
+      </c>
+      <c r="AH59">
+        <v>4.585768959897921e-10</v>
+      </c>
+      <c r="AI59">
+        <v>4.075429031066241e-06</v>
+      </c>
+      <c r="AJ59">
+        <v>5.897858095336998e-09</v>
+      </c>
+      <c r="AL59">
+        <v>3.615051306038555e-13</v>
+      </c>
+      <c r="AM59">
+        <v>0.05543667689397193</v>
+      </c>
+      <c r="AN59">
+        <v>1.510537734447493e-09</v>
+      </c>
+      <c r="AO59">
+        <v>1.771950803692654e-12</v>
+      </c>
+      <c r="AP59">
+        <v>2.051466852652752e-12</v>
+      </c>
+      <c r="AQ59">
+        <v>1.877057839188596e-06</v>
+      </c>
+      <c r="AR59">
+        <v>1.897074540843046e-12</v>
+      </c>
+      <c r="AS59">
+        <v>1.192150963558436e-07</v>
+      </c>
+      <c r="AT59">
+        <v>6.757056732324343e-11</v>
+      </c>
+      <c r="AU59">
+        <v>5.566090439612482e-11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:47">
+      <c r="A60" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E60">
+        <v>0.9454924489214741</v>
+      </c>
+      <c r="F60">
+        <v>0.945544190021633</v>
+      </c>
+      <c r="G60">
+        <v>0.9846226521243513</v>
+      </c>
+      <c r="H60">
+        <v>0.983945725009694</v>
+      </c>
+      <c r="I60">
+        <v>-0.9946522415856272</v>
+      </c>
+      <c r="J60">
+        <v>0.6314007385088819</v>
+      </c>
+      <c r="K60">
+        <v>-0.9516263980238908</v>
+      </c>
+      <c r="L60">
+        <v>0.7397835668697798</v>
+      </c>
+      <c r="S60">
+        <v>-0.9453201987306772</v>
+      </c>
+      <c r="T60">
+        <v>-0.2741768943699194</v>
+      </c>
+      <c r="U60">
+        <v>0.9810203703456815</v>
+      </c>
+      <c r="Z60">
+        <v>0.983994213814004</v>
+      </c>
+      <c r="AB60">
+        <v>0.9954419043591369</v>
+      </c>
+      <c r="AC60">
+        <v>-0.9723142393171229</v>
+      </c>
+      <c r="AG60">
+        <v>0.9991203564624581</v>
+      </c>
+      <c r="AH60">
+        <v>0.9922025935495566</v>
+      </c>
+      <c r="AI60">
+        <v>-0.8666386545392512</v>
+      </c>
+      <c r="AJ60">
+        <v>-0.9412622465791501</v>
+      </c>
+      <c r="AL60">
+        <v>0.9799360992533185</v>
+      </c>
+      <c r="AM60">
+        <v>0.5846384755782431</v>
+      </c>
+      <c r="AN60">
+        <v>0.9740502699153343</v>
+      </c>
+      <c r="AO60">
+        <v>-0.9777185294344682</v>
+      </c>
+      <c r="AP60">
+        <v>-0.9767585271127308</v>
+      </c>
+      <c r="AQ60">
+        <v>-0.9450174559578737</v>
+      </c>
+      <c r="AR60">
+        <v>-0.9772344985574443</v>
+      </c>
+      <c r="AS60">
+        <v>-0.9155814151807879</v>
+      </c>
+      <c r="AT60">
+        <v>-0.9623841735205702</v>
+      </c>
+      <c r="AU60">
+        <v>-0.963147075585805</v>
+      </c>
+    </row>
+    <row r="61" spans="1:47">
+      <c r="A61" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E61">
+        <v>3.364772512112845e-07</v>
+      </c>
+      <c r="F61">
+        <v>3.346032997785824e-07</v>
+      </c>
+      <c r="G61">
+        <v>1.846828718021339e-10</v>
+      </c>
+      <c r="H61">
+        <v>2.388076798595027e-10</v>
+      </c>
+      <c r="I61">
+        <v>3.338417524311307e-13</v>
+      </c>
+      <c r="J61">
+        <v>0.01544336305699132</v>
+      </c>
+      <c r="K61">
+        <v>1.666065589706543e-07</v>
+      </c>
+      <c r="L61">
+        <v>0.002489961434083786</v>
+      </c>
+      <c r="S61">
+        <v>3.427783987281511e-07</v>
+      </c>
+      <c r="T61">
+        <v>0.3428332601321638</v>
+      </c>
+      <c r="U61">
+        <v>6.478720341291164e-10</v>
+      </c>
+      <c r="Z61">
+        <v>2.345371160541546e-10</v>
+      </c>
+      <c r="AB61">
+        <v>1.282173780407826e-13</v>
+      </c>
+      <c r="AC61">
+        <v>6.125260035807869e-09</v>
+      </c>
+      <c r="AG61">
+        <v>6.675956999983812e-18</v>
+      </c>
+      <c r="AH61">
+        <v>3.190989630199373e-12</v>
+      </c>
+      <c r="AI61">
+        <v>6.056333467953547e-05</v>
+      </c>
+      <c r="AJ61">
+        <v>5.220278066570269e-07</v>
+      </c>
+      <c r="AL61">
+        <v>9.020657805994651e-10</v>
+      </c>
+      <c r="AM61">
+        <v>0.02810461809762002</v>
+      </c>
+      <c r="AN61">
+        <v>4.168843754057472e-09</v>
+      </c>
+      <c r="AO61">
+        <v>1.68394560346863e-09</v>
+      </c>
+      <c r="AP61">
+        <v>2.164439140493433e-09</v>
+      </c>
+      <c r="AQ61">
+        <v>3.540894115238029e-07</v>
+      </c>
+      <c r="AR61">
+        <v>1.91369978444262e-09</v>
+      </c>
+      <c r="AS61">
+        <v>4.34740202518801e-06</v>
+      </c>
+      <c r="AT61">
+        <v>3.770928658674826e-08</v>
+      </c>
+      <c r="AU61">
+        <v>3.340234079216689e-08</v>
+      </c>
+    </row>
+    <row r="62" spans="1:47">
+      <c r="A62" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E62">
+        <v>0.9513243784042648</v>
+      </c>
+      <c r="F62">
+        <v>0.9513668517870297</v>
+      </c>
+      <c r="G62">
+        <v>0.9858368275764195</v>
+      </c>
+      <c r="H62">
+        <v>0.9850753033831167</v>
+      </c>
+      <c r="I62">
+        <v>-0.9945075277569299</v>
+      </c>
+      <c r="J62">
+        <v>0.6554173772604948</v>
+      </c>
+      <c r="K62">
+        <v>-0.9593549872914995</v>
+      </c>
+      <c r="L62">
+        <v>0.757658719247244</v>
+      </c>
+      <c r="U62">
+        <v>0.9824477708711725</v>
+      </c>
+      <c r="Z62">
+        <v>0.9867520234229579</v>
+      </c>
+      <c r="AB62">
+        <v>0.9969306947107662</v>
+      </c>
+      <c r="AC62">
+        <v>-0.9758725855334562</v>
+      </c>
+      <c r="AL62">
+        <v>0.981775861200525</v>
+      </c>
+    </row>
+    <row r="63" spans="1:47">
+      <c r="A63" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E63">
+        <v>1.728319598441523e-07</v>
+      </c>
+      <c r="F63">
+        <v>1.719450258590569e-07</v>
+      </c>
+      <c r="G63">
+        <v>1.130414646823088e-10</v>
+      </c>
+      <c r="H63">
+        <v>1.545236026958648e-10</v>
+      </c>
+      <c r="I63">
+        <v>3.917258536140411e-13</v>
+      </c>
+      <c r="J63">
+        <v>0.01094128654762325</v>
+      </c>
+      <c r="K63">
+        <v>5.962182626033373e-08</v>
+      </c>
+      <c r="L63">
+        <v>0.001695019916637072</v>
+      </c>
+      <c r="U63">
+        <v>4.065317627117921e-10</v>
+      </c>
+      <c r="Z63">
+        <v>7.586267435995945e-11</v>
+      </c>
+      <c r="AB63">
+        <v>1.199152479881408e-14</v>
+      </c>
+      <c r="AC63">
+        <v>2.70393336804657e-09</v>
+      </c>
+      <c r="AL63">
+        <v>5.085728491123624e-10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:47">
+      <c r="A64" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E64">
+        <v>0.9219938925731727</v>
+      </c>
+      <c r="F64">
+        <v>0.922106181756242</v>
+      </c>
+      <c r="G64">
+        <v>0.982591272105977</v>
+      </c>
+      <c r="H64">
+        <v>0.9824761601319234</v>
+      </c>
+      <c r="I64">
+        <v>-0.989498778109362</v>
+      </c>
+      <c r="J64">
+        <v>0.5459655114814073</v>
+      </c>
+      <c r="K64">
+        <v>-0.9278103772297317</v>
+      </c>
+      <c r="L64">
+        <v>0.6765351092859662</v>
+      </c>
+      <c r="S64">
+        <v>-0.9245397602911325</v>
+      </c>
+      <c r="T64">
+        <v>-0.2063396762846715</v>
+      </c>
+      <c r="U64">
+        <v>0.978326252526705</v>
+      </c>
+      <c r="Z64">
+        <v>0.9681140956886751</v>
+      </c>
+      <c r="AB64">
+        <v>0.9796600890272267</v>
+      </c>
+      <c r="AC64">
+        <v>-0.9629594447880707</v>
+      </c>
+      <c r="AG64">
+        <v>0.9874599006818622</v>
+      </c>
+      <c r="AI64">
+        <v>-0.8682609252918519</v>
+      </c>
+      <c r="AJ64">
+        <v>-0.9357976300838171</v>
+      </c>
+      <c r="AL64">
+        <v>0.9762176828395298</v>
+      </c>
+      <c r="AM64">
+        <v>0.6678218555301139</v>
+      </c>
+      <c r="AN64">
+        <v>0.9867447973008142</v>
+      </c>
+      <c r="AO64">
+        <v>-0.9751823506690634</v>
+      </c>
+      <c r="AP64">
+        <v>-0.9734780283101684</v>
+      </c>
+      <c r="AQ64">
+        <v>-0.976407159781631</v>
+      </c>
+      <c r="AR64">
+        <v>-0.9743163780749358</v>
+      </c>
+      <c r="AS64">
+        <v>-0.8947667073617971</v>
+      </c>
+      <c r="AT64">
+        <v>-0.9505051852725387</v>
+      </c>
+      <c r="AU64">
+        <v>-0.951555236640914</v>
+      </c>
+    </row>
+    <row r="65" spans="1:47">
+      <c r="A65" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E65">
+        <v>2.744962709469352e-06</v>
+      </c>
+      <c r="F65">
+        <v>2.72201523592704e-06</v>
+      </c>
+      <c r="G65">
+        <v>3.871127696160273e-10</v>
+      </c>
+      <c r="H65">
+        <v>4.026271568656208e-10</v>
+      </c>
+      <c r="I65">
+        <v>1.892945188305969e-11</v>
+      </c>
+      <c r="J65">
+        <v>0.04341282028723826</v>
+      </c>
+      <c r="K65">
+        <v>1.746587287617738e-06</v>
+      </c>
+      <c r="L65">
+        <v>0.007885308932438379</v>
+      </c>
+      <c r="S65">
+        <v>2.262124346961833e-06</v>
+      </c>
+      <c r="T65">
+        <v>0.47910360434482</v>
+      </c>
+      <c r="U65">
+        <v>1.428365967456488e-09</v>
+      </c>
+      <c r="Z65">
+        <v>1.416521622286224e-08</v>
+      </c>
+      <c r="AB65">
+        <v>9.785462425555727e-10</v>
+      </c>
+      <c r="AC65">
+        <v>3.442174710066159e-08</v>
+      </c>
+      <c r="AG65">
+        <v>5.465108898656958e-11</v>
+      </c>
+      <c r="AI65">
+        <v>5.648194331516847e-05</v>
+      </c>
+      <c r="AJ65">
+        <v>8.795996456679204e-07</v>
+      </c>
+      <c r="AL65">
+        <v>2.481878299802608e-09</v>
+      </c>
+      <c r="AM65">
+        <v>0.009053231991503248</v>
+      </c>
+      <c r="AN65">
+        <v>7.611010469172537e-11</v>
+      </c>
+      <c r="AO65">
+        <v>3.197765099584879e-09</v>
+      </c>
+      <c r="AP65">
+        <v>4.745864208623451e-09</v>
+      </c>
+      <c r="AQ65">
+        <v>2.366545335793882e-09</v>
+      </c>
+      <c r="AR65">
+        <v>3.921085758608363e-09</v>
+      </c>
+      <c r="AS65">
+        <v>1.557413825099705e-05</v>
+      </c>
+      <c r="AT65">
+        <v>1.906935127400616e-07</v>
+      </c>
+      <c r="AU65">
+        <v>1.680564019295952e-07</v>
+      </c>
+    </row>
+    <row r="66" spans="1:47">
+      <c r="A66" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E66">
+        <v>-0.9186178952257914</v>
+      </c>
+      <c r="F66">
+        <v>-0.9187558813091322</v>
+      </c>
+      <c r="G66">
+        <v>-0.9288158123349629</v>
+      </c>
+      <c r="H66">
+        <v>-0.9291073676628259</v>
+      </c>
+      <c r="I66">
+        <v>0.9078024831176877</v>
+      </c>
+      <c r="J66">
+        <v>-0.6860201844488508</v>
+      </c>
+      <c r="K66">
+        <v>0.9499548349305347</v>
+      </c>
+      <c r="L66">
+        <v>-0.6487091957330142</v>
+      </c>
+      <c r="S66">
+        <v>0.9508985403998494</v>
+      </c>
+      <c r="T66">
+        <v>0.587304641463097</v>
+      </c>
+      <c r="U66">
+        <v>-0.9461549224496663</v>
+      </c>
+      <c r="Z66">
+        <v>-0.9186615326594154</v>
+      </c>
+      <c r="AB66">
+        <v>-0.8614637779018355</v>
+      </c>
+      <c r="AC66">
+        <v>0.9544513461167311</v>
+      </c>
+      <c r="AG66">
+        <v>-0.8737063373815547</v>
+      </c>
+      <c r="AJ66">
+        <v>0.9835064531454347</v>
+      </c>
+      <c r="AK66">
+        <v>-0.238177884328312</v>
+      </c>
+      <c r="AL66">
+        <v>-0.9483220295204415</v>
+      </c>
+      <c r="AM66">
+        <v>-0.407641980931225</v>
+      </c>
+      <c r="AN66">
+        <v>-0.9283662988146589</v>
+      </c>
+      <c r="AO66">
+        <v>0.9517195200039669</v>
+      </c>
+      <c r="AP66">
+        <v>0.9532490795915882</v>
+      </c>
+      <c r="AQ66">
+        <v>0.8309784248379058</v>
+      </c>
+      <c r="AR66">
+        <v>0.952513315765311</v>
+      </c>
+      <c r="AS66">
+        <v>0.9757740230987627</v>
+      </c>
+      <c r="AT66">
+        <v>0.964233465235532</v>
+      </c>
+      <c r="AU66">
+        <v>0.9638763736938299</v>
+      </c>
+    </row>
+    <row r="67" spans="1:47">
+      <c r="A67" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E67">
+        <v>3.513139746459135e-06</v>
+      </c>
+      <c r="F67">
+        <v>3.478613216280436e-06</v>
+      </c>
+      <c r="G67">
+        <v>1.609183439458643e-06</v>
+      </c>
+      <c r="H67">
+        <v>1.571050186334615e-06</v>
+      </c>
+      <c r="I67">
+        <v>7.251345125326638e-06</v>
+      </c>
+      <c r="J67">
+        <v>0.006750366193355548</v>
+      </c>
+      <c r="K67">
+        <v>2.035298436844451e-07</v>
+      </c>
+      <c r="L67">
+        <v>0.01208101769580762</v>
+      </c>
+      <c r="S67">
+        <v>1.819354768106761e-07</v>
+      </c>
+      <c r="T67">
+        <v>0.02722353975732898</v>
+      </c>
+      <c r="U67">
+        <v>3.131277883328643e-07</v>
+      </c>
+      <c r="Z67">
+        <v>3.502190555085177e-06</v>
+      </c>
+      <c r="AB67">
+        <v>7.521849183511235e-05</v>
+      </c>
+      <c r="AC67">
+        <v>1.168350323304908e-07</v>
+      </c>
+      <c r="AG67">
+        <v>4.438614937020343e-05</v>
+      </c>
+      <c r="AJ67">
+        <v>2.805285238675571e-10</v>
+      </c>
+      <c r="AK67">
+        <v>0.4122198618283997</v>
+      </c>
+      <c r="AL67">
+        <v>2.458881540125095e-07</v>
+      </c>
+      <c r="AM67">
+        <v>0.1479548761811149</v>
+      </c>
+      <c r="AN67">
+        <v>1.669468939729378e-06</v>
+      </c>
+      <c r="AO67">
+        <v>1.647249343812367e-07</v>
+      </c>
+      <c r="AP67">
+        <v>1.362452350302416e-07</v>
+      </c>
+      <c r="AQ67">
+        <v>0.0002314299831172191</v>
+      </c>
+      <c r="AR67">
+        <v>1.493873421615874e-07</v>
+      </c>
+      <c r="AS67">
+        <v>2.770297858090591e-09</v>
+      </c>
+      <c r="AT67">
+        <v>2.79789870498634e-08</v>
+      </c>
+      <c r="AU67">
+        <v>2.967438779358615e-08</v>
+      </c>
+    </row>
+    <row r="68" spans="1:47">
+      <c r="A68" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E68">
+        <v>-0.9617035438569446</v>
+      </c>
+      <c r="F68">
+        <v>-0.9618001403230007</v>
+      </c>
+      <c r="G68">
+        <v>-0.9767895386935058</v>
+      </c>
+      <c r="H68">
+        <v>-0.9766086215041021</v>
+      </c>
+      <c r="I68">
+        <v>0.9669844992929851</v>
+      </c>
+      <c r="J68">
+        <v>-0.7097018852897249</v>
+      </c>
+      <c r="K68">
+        <v>0.9854944958798357</v>
+      </c>
+      <c r="L68">
+        <v>-0.7152329588412513</v>
+      </c>
+      <c r="S68">
+        <v>0.9831733253286133</v>
+      </c>
+      <c r="T68">
+        <v>0.5133605800164917</v>
+      </c>
+      <c r="U68">
+        <v>-0.9877063323013802</v>
+      </c>
+      <c r="Z68">
+        <v>-0.9735272511041517</v>
+      </c>
+      <c r="AB68">
+        <v>-0.9381318739816449</v>
+      </c>
+      <c r="AC68">
+        <v>0.9920510450215611</v>
+      </c>
+      <c r="AG68">
+        <v>-0.9466667170014984</v>
+      </c>
+      <c r="AK68">
+        <v>-0.1441708986688817</v>
+      </c>
+      <c r="AL68">
+        <v>-0.9890606659721417</v>
+      </c>
+      <c r="AM68">
+        <v>-0.4599961375814015</v>
+      </c>
+      <c r="AN68">
+        <v>-0.9690889626380836</v>
+      </c>
+      <c r="AO68">
+        <v>0.9902782503161693</v>
+      </c>
+      <c r="AP68">
+        <v>0.9911776580324877</v>
+      </c>
+      <c r="AQ68">
+        <v>0.8877918364233124</v>
+      </c>
+      <c r="AR68">
+        <v>0.9907488389821235</v>
+      </c>
+      <c r="AS68">
+        <v>0.989657138706422</v>
+      </c>
+      <c r="AT68">
+        <v>0.9958760187689428</v>
+      </c>
+      <c r="AU68">
+        <v>0.9958241480095701</v>
+      </c>
+    </row>
+    <row r="69" spans="1:47">
+      <c r="A69" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E69">
+        <v>4.193080561395557e-08</v>
+      </c>
+      <c r="F69">
+        <v>4.130889256653974e-08</v>
+      </c>
+      <c r="G69">
+        <v>2.147312508348081e-09</v>
+      </c>
+      <c r="H69">
+        <v>2.248835034313e-09</v>
+      </c>
+      <c r="I69">
+        <v>1.741298868378648e-08</v>
+      </c>
+      <c r="J69">
+        <v>0.00446606669159074</v>
+      </c>
+      <c r="K69">
+        <v>1.303620241779976e-10</v>
+      </c>
+      <c r="L69">
+        <v>0.004032624625578605</v>
+      </c>
+      <c r="S69">
+        <v>3.160606320358198e-10</v>
+      </c>
+      <c r="T69">
+        <v>0.06044879574538085</v>
+      </c>
+      <c r="U69">
+        <v>4.854139384534192e-11</v>
+      </c>
+      <c r="Z69">
+        <v>4.693761254055767e-09</v>
+      </c>
+      <c r="AB69">
+        <v>7.079584051229022e-07</v>
+      </c>
+      <c r="AC69">
+        <v>3.580495275433857e-12</v>
+      </c>
+      <c r="AG69">
+        <v>2.960206325830732e-07</v>
+      </c>
+      <c r="AK69">
+        <v>0.6229125619802818</v>
+      </c>
+      <c r="AL69">
+        <v>2.416767569749582e-11</v>
+      </c>
+      <c r="AM69">
+        <v>0.0979268436618395</v>
+      </c>
+      <c r="AN69">
+        <v>1.178231991053076e-08</v>
+      </c>
+      <c r="AO69">
+        <v>1.193696520428635e-11</v>
+      </c>
+      <c r="AP69">
+        <v>6.679911696656377e-12</v>
+      </c>
+      <c r="AQ69">
+        <v>2.253476349578741e-05</v>
+      </c>
+      <c r="AR69">
+        <v>8.872465959632947e-12</v>
+      </c>
+      <c r="AS69">
+        <v>1.728586875346959e-11</v>
+      </c>
+      <c r="AT69">
+        <v>7.039649896260466e-14</v>
+      </c>
+      <c r="AU69">
+        <v>7.587054635364025e-14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:47">
+      <c r="A70" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E70">
+        <v>0.1735207429514862</v>
+      </c>
+      <c r="F70">
+        <v>0.1733287378202227</v>
+      </c>
+      <c r="J70">
+        <v>0.3773734792787343</v>
+      </c>
+      <c r="K70">
+        <v>-0.1339359858207512</v>
+      </c>
+      <c r="L70">
+        <v>0.2385688243482436</v>
+      </c>
+    </row>
+    <row r="71" spans="1:47">
+      <c r="A71" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E71">
+        <v>0.5530123306119852</v>
+      </c>
+      <c r="F71">
+        <v>0.5534584943944068</v>
+      </c>
+      <c r="J71">
+        <v>0.1834579156150149</v>
+      </c>
+      <c r="K71">
+        <v>0.6480408332558456</v>
+      </c>
+      <c r="L71">
+        <v>0.4114299619865973</v>
+      </c>
+    </row>
+    <row r="72" spans="1:47">
+      <c r="A72" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L72">
+        <v>0.7235920463049881</v>
+      </c>
+      <c r="U72">
+        <v>0.9998855384688897</v>
+      </c>
+    </row>
+    <row r="73" spans="1:47">
+      <c r="A73" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L73">
+        <v>0.00344093658999037</v>
+      </c>
+      <c r="U73">
+        <v>3.245957128034791e-23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:47">
+      <c r="A74" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E74">
+        <v>0.3724285262644577</v>
+      </c>
+      <c r="F74">
+        <v>0.3728479643106524</v>
+      </c>
+      <c r="G74">
+        <v>0.5768732572759266</v>
+      </c>
+      <c r="H74">
+        <v>0.5799932718565947</v>
+      </c>
+      <c r="I74">
+        <v>-0.5661185554784465</v>
+      </c>
+      <c r="J74">
+        <v>-0.252618213720298</v>
+      </c>
+      <c r="K74">
+        <v>-0.3688644542616863</v>
+      </c>
+      <c r="S74">
+        <v>-0.3720811898777275</v>
+      </c>
+      <c r="T74">
+        <v>0.4830220484202676</v>
+      </c>
+      <c r="U74">
+        <v>0.5429164648999737</v>
+      </c>
+      <c r="Z74">
+        <v>0.4691937141581167</v>
+      </c>
+      <c r="AB74">
+        <v>0.5386263968047659</v>
+      </c>
+      <c r="AC74">
+        <v>-0.4814458399163299</v>
+      </c>
+      <c r="AG74">
+        <v>0.5607046034245288</v>
+      </c>
+      <c r="AK74">
+        <v>-0.4331580464896655</v>
+      </c>
+      <c r="AL74">
+        <v>0.5345442650492251</v>
+      </c>
+      <c r="AO74">
+        <v>-0.5391097462738369</v>
+      </c>
+      <c r="AP74">
+        <v>-0.5322836554777041</v>
+      </c>
+      <c r="AQ74">
+        <v>-0.8021172892653262</v>
+      </c>
+      <c r="AR74">
+        <v>-0.5356115123793904</v>
+      </c>
+      <c r="AS74">
+        <v>-0.3357539455904459</v>
+      </c>
+      <c r="AT74">
+        <v>-0.4514169719348766</v>
+      </c>
+      <c r="AU74">
+        <v>-0.4544358777348563</v>
+      </c>
+    </row>
+    <row r="75" spans="1:47">
+      <c r="A75" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E75">
+        <v>0.1897350030851145</v>
+      </c>
+      <c r="F75">
+        <v>0.189197313311612</v>
+      </c>
+      <c r="G75">
+        <v>0.03079216768699484</v>
+      </c>
+      <c r="H75">
+        <v>0.02969032221340447</v>
+      </c>
+      <c r="I75">
+        <v>0.03482418412327411</v>
+      </c>
+      <c r="J75">
+        <v>0.3835661212473614</v>
+      </c>
+      <c r="K75">
+        <v>0.1943433063648343</v>
+      </c>
+      <c r="S75">
+        <v>0.1901810024554288</v>
+      </c>
+      <c r="T75">
+        <v>0.08019021229002857</v>
+      </c>
+      <c r="U75">
+        <v>0.04483594448067303</v>
+      </c>
+      <c r="Z75">
+        <v>0.09054456921047457</v>
+      </c>
+      <c r="AB75">
+        <v>0.04689564409254415</v>
+      </c>
+      <c r="AC75">
+        <v>0.08132616282154415</v>
+      </c>
+      <c r="AG75">
+        <v>0.0369956674511041</v>
+      </c>
+      <c r="AK75">
+        <v>0.1218269605438863</v>
+      </c>
+      <c r="AL75">
+        <v>0.04891876598510601</v>
+      </c>
+      <c r="AO75">
+        <v>0.04666020012739186</v>
+      </c>
+      <c r="AP75">
+        <v>0.05006606710516356</v>
+      </c>
+      <c r="AQ75">
+        <v>0.0005575614119454789</v>
+      </c>
+      <c r="AR75">
+        <v>0.04838381736471035</v>
+      </c>
+      <c r="AS75">
+        <v>0.2405503315904887</v>
+      </c>
+      <c r="AT75">
+        <v>0.1051794059431583</v>
+      </c>
+      <c r="AU75">
+        <v>0.10258646967602</v>
+      </c>
+    </row>
+    <row r="76" spans="1:47">
+      <c r="A76" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E76">
+        <v>0.9273413390425792</v>
+      </c>
+      <c r="F76">
+        <v>0.9275058442881808</v>
+      </c>
+      <c r="G76">
+        <v>0.9907382514410331</v>
+      </c>
+      <c r="H76">
+        <v>0.9911249778728941</v>
+      </c>
+      <c r="I76">
+        <v>-0.9850271450905644</v>
+      </c>
+      <c r="J76">
+        <v>0.5533133151490546</v>
+      </c>
+      <c r="K76">
+        <v>-0.9430052324501905</v>
+      </c>
+      <c r="L76">
+        <v>0.6579920381523774</v>
+      </c>
+      <c r="S76">
+        <v>-0.940793572527775</v>
+      </c>
+      <c r="T76">
+        <v>-0.2884394932495158</v>
+      </c>
+      <c r="U76">
+        <v>0.9895091488199197</v>
+      </c>
+      <c r="Z76">
+        <v>0.9656154972450038</v>
+      </c>
+      <c r="AB76">
+        <v>0.960887927703875</v>
+      </c>
+      <c r="AC76">
+        <v>-0.9767523263943658</v>
+      </c>
+      <c r="AG76">
+        <v>0.9719293026562289</v>
+      </c>
+      <c r="AL76">
+        <v>0.9882687770218983</v>
+      </c>
+      <c r="AM76">
+        <v>0.6545396707364013</v>
+      </c>
+      <c r="AO76">
+        <v>-0.9894274725360351</v>
+      </c>
+      <c r="AP76">
+        <v>-0.9882708642231152</v>
+      </c>
+      <c r="AQ76">
+        <v>-0.9733897937497697</v>
+      </c>
+      <c r="AR76">
+        <v>-0.9888428381354065</v>
+      </c>
+      <c r="AS76">
+        <v>-0.9290775730214902</v>
+      </c>
+      <c r="AT76">
+        <v>-0.9700809812127498</v>
+      </c>
+      <c r="AU76">
+        <v>-0.9708955698572945</v>
+      </c>
+    </row>
+    <row r="77" spans="1:47">
+      <c r="A77" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E77">
+        <v>1.813914313260195e-06</v>
+      </c>
+      <c r="F77">
+        <v>1.790061592748799e-06</v>
+      </c>
+      <c r="G77">
+        <v>8.933361971121679e-12</v>
+      </c>
+      <c r="H77">
+        <v>6.922052130007895e-12</v>
+      </c>
+      <c r="I77">
+        <v>1.575231434253943e-10</v>
+      </c>
+      <c r="J77">
+        <v>0.04011945093552371</v>
+      </c>
+      <c r="K77">
+        <v>4.373803361696436e-07</v>
+      </c>
+      <c r="L77">
+        <v>0.01052653428716002</v>
+      </c>
+      <c r="S77">
+        <v>5.469609386676914e-07</v>
+      </c>
+      <c r="T77">
+        <v>0.31726736934507</v>
+      </c>
+      <c r="U77">
+        <v>1.881798320682963e-11</v>
+      </c>
+      <c r="Z77">
+        <v>2.215396069570373e-08</v>
+      </c>
+      <c r="AB77">
+        <v>4.749806445244841e-08</v>
+      </c>
+      <c r="AC77">
+        <v>2.167877156430254e-09</v>
+      </c>
+      <c r="AG77">
+        <v>6.648792550997123e-09</v>
+      </c>
+      <c r="AL77">
+        <v>3.669518403519703e-11</v>
+      </c>
+      <c r="AM77">
+        <v>0.01108551012880213</v>
+      </c>
+      <c r="AO77">
+        <v>1.971084870984375e-11</v>
+      </c>
+      <c r="AP77">
+        <v>3.665619365505226e-11</v>
+      </c>
+      <c r="AQ77">
+        <v>4.840463286233915e-09</v>
+      </c>
+      <c r="AR77">
+        <v>2.718994851587119e-11</v>
+      </c>
+      <c r="AS77">
+        <v>1.574912597421971e-06</v>
+      </c>
+      <c r="AT77">
+        <v>9.708849258147516e-09</v>
+      </c>
+      <c r="AU77">
+        <v>8.241480601103499e-09</v>
+      </c>
+    </row>
+    <row r="78" spans="1:47">
+      <c r="A78" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E78">
+        <v>-0.964100215303813</v>
+      </c>
+      <c r="F78">
+        <v>-0.9641972557779824</v>
+      </c>
+      <c r="G78">
+        <v>-0.9950124668244423</v>
+      </c>
+      <c r="H78">
+        <v>-0.9947864890791901</v>
+      </c>
+      <c r="I78">
+        <v>0.992198893736899</v>
+      </c>
+      <c r="J78">
+        <v>-0.666629449428169</v>
+      </c>
+      <c r="K78">
+        <v>0.9810845497451939</v>
+      </c>
+      <c r="L78">
+        <v>-0.7190861963958256</v>
+      </c>
+      <c r="S78">
+        <v>0.9780525883915391</v>
+      </c>
+      <c r="T78">
+        <v>0.4055315889588495</v>
+      </c>
+      <c r="U78">
+        <v>-0.9997393375482079</v>
+      </c>
+      <c r="Z78">
+        <v>-0.9892040808568739</v>
+      </c>
+      <c r="AB78">
+        <v>-0.9721461140618203</v>
+      </c>
+      <c r="AC78">
+        <v>0.9969713659725661</v>
+      </c>
+      <c r="AG78">
+        <v>-0.9795961857532559</v>
+      </c>
+      <c r="AL78">
+        <v>-0.9998725029728031</v>
+      </c>
+      <c r="AP78">
+        <v>0.9999639836485198</v>
+      </c>
+      <c r="AR78">
+        <v>0.9999905152505212</v>
+      </c>
+      <c r="AS78">
+        <v>0.9692296623390273</v>
+      </c>
+      <c r="AT78">
+        <v>0.994699327411215</v>
+      </c>
+      <c r="AU78">
+        <v>0.9950538209446917</v>
+      </c>
+    </row>
+    <row r="79" spans="1:47">
+      <c r="A79" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E79">
+        <v>2.860197901306007e-08</v>
+      </c>
+      <c r="F79">
+        <v>2.814715544840381e-08</v>
+      </c>
+      <c r="G79">
+        <v>2.198673169033308e-13</v>
+      </c>
+      <c r="H79">
+        <v>2.866928706312572e-13</v>
+      </c>
+      <c r="I79">
+        <v>3.200059573058867e-12</v>
+      </c>
+      <c r="J79">
+        <v>0.009222916070093127</v>
+      </c>
+      <c r="K79">
+        <v>6.349259921575594e-10</v>
+      </c>
+      <c r="L79">
+        <v>0.003750707763852383</v>
+      </c>
+      <c r="S79">
+        <v>1.53914102081695e-09</v>
+      </c>
+      <c r="T79">
+        <v>0.1502694748137884</v>
+      </c>
+      <c r="U79">
+        <v>4.52605950854981e-21</v>
+      </c>
+      <c r="Z79">
+        <v>2.233476364447205e-11</v>
+      </c>
+      <c r="AB79">
+        <v>6.349541099654589e-09</v>
+      </c>
+      <c r="AC79">
+        <v>1.107012597745635e-14</v>
+      </c>
+      <c r="AG79">
+        <v>9.970002899307633e-10</v>
+      </c>
+      <c r="AL79">
+        <v>6.19974308907834e-23</v>
+      </c>
+      <c r="AP79">
+        <v>3.151060738742211e-26</v>
+      </c>
+      <c r="AR79">
+        <v>1.051086253884739e-29</v>
+      </c>
+      <c r="AS79">
+        <v>1.146767681515795e-08</v>
+      </c>
+      <c r="AT79">
+        <v>3.166210334576848e-13</v>
+      </c>
+      <c r="AU79">
+        <v>2.091719556347829e-13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:47">
+      <c r="A80" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E80">
+        <v>-0.9652138768990871</v>
+      </c>
+      <c r="F80">
+        <v>-0.9653081909040769</v>
+      </c>
+      <c r="G80">
+        <v>-0.9945354427807114</v>
+      </c>
+      <c r="H80">
+        <v>-0.9942859461467327</v>
+      </c>
+      <c r="I80">
+        <v>0.9916336495462821</v>
+      </c>
+      <c r="J80">
+        <v>-0.6723167372195801</v>
+      </c>
+      <c r="K80">
+        <v>0.9825616680748145</v>
+      </c>
+      <c r="L80">
+        <v>-0.7217487953489148</v>
+      </c>
+      <c r="S80">
+        <v>0.9794048487837855</v>
+      </c>
+      <c r="T80">
+        <v>0.413074039997379</v>
+      </c>
+      <c r="U80">
+        <v>-0.99962553004618</v>
+      </c>
+      <c r="Z80">
+        <v>-0.989533030524004</v>
+      </c>
+      <c r="AB80">
+        <v>-0.9716088830891996</v>
+      </c>
+      <c r="AC80">
+        <v>0.997433302868846</v>
+      </c>
+      <c r="AG80">
+        <v>-0.9789252055771136</v>
+      </c>
+      <c r="AL80">
+        <v>-0.9998481733660066</v>
+      </c>
+      <c r="AR80">
+        <v>0.9999914639835344</v>
+      </c>
+      <c r="AS80">
+        <v>0.9712225787867642</v>
+      </c>
+      <c r="AT80">
+        <v>0.995523140384537</v>
+      </c>
+      <c r="AU80">
+        <v>0.9958481828248982</v>
+      </c>
+    </row>
+    <row r="81" spans="1:47">
+      <c r="A81" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E81">
+        <v>2.373188141160548e-08</v>
+      </c>
+      <c r="F81">
+        <v>2.335321422957668e-08</v>
+      </c>
+      <c r="G81">
+        <v>3.799539047547259e-13</v>
+      </c>
+      <c r="H81">
+        <v>4.964029115091542e-13</v>
+      </c>
+      <c r="I81">
+        <v>4.863058652438597e-12</v>
+      </c>
+      <c r="J81">
+        <v>0.008435166813260933</v>
+      </c>
+      <c r="K81">
+        <v>3.910543973728779e-10</v>
+      </c>
+      <c r="L81">
+        <v>0.003565124595178773</v>
+      </c>
+      <c r="S81">
+        <v>1.053992498404835e-09</v>
+      </c>
+      <c r="T81">
+        <v>0.1421062940160346</v>
+      </c>
+      <c r="U81">
+        <v>3.977821960682268e-20</v>
+      </c>
+      <c r="Z81">
+        <v>1.85633683197563e-11</v>
+      </c>
+      <c r="AB81">
+        <v>7.112412057301567e-09</v>
+      </c>
+      <c r="AC81">
+        <v>4.105347227611791e-15</v>
+      </c>
+      <c r="AG81">
+        <v>1.208864546411452e-09</v>
+      </c>
+      <c r="AL81">
+        <v>1.767821784147853e-22</v>
+      </c>
+      <c r="AR81">
+        <v>5.584901503886012e-30</v>
+      </c>
+      <c r="AS81">
+        <v>7.706722106472928e-09</v>
+      </c>
+      <c r="AT81">
+        <v>1.151232076336347e-13</v>
+      </c>
+      <c r="AU81">
+        <v>7.329162656949041e-14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:47">
+      <c r="A82" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E82">
+        <v>-0.8418043202048899</v>
+      </c>
+      <c r="F82">
+        <v>-0.8420348834113727</v>
+      </c>
+      <c r="G82">
+        <v>-0.9475066350999309</v>
+      </c>
+      <c r="H82">
+        <v>-0.9485185105404407</v>
+      </c>
+      <c r="I82">
+        <v>0.9446261111752186</v>
+      </c>
+      <c r="J82">
+        <v>-0.3682974566364466</v>
+      </c>
+      <c r="K82">
+        <v>0.8490660523156527</v>
+      </c>
+      <c r="L82">
+        <v>-0.5541776598905526</v>
+      </c>
+      <c r="S82">
+        <v>0.8488274821017905</v>
+      </c>
+      <c r="U82">
+        <v>-0.9355694061474041</v>
+      </c>
+      <c r="Z82">
+        <v>-0.9023266063512358</v>
+      </c>
+      <c r="AB82">
+        <v>-0.9225801941646442</v>
+      </c>
+      <c r="AC82">
+        <v>0.9069244605580774</v>
+      </c>
+      <c r="AG82">
+        <v>-0.9353268866418243</v>
+      </c>
+      <c r="AK82">
+        <v>0.1663880657269298</v>
+      </c>
+      <c r="AL82">
+        <v>-0.9319406919122345</v>
+      </c>
+      <c r="AO82">
+        <v>0.9332179211256489</v>
+      </c>
+      <c r="AP82">
+        <v>0.9301972506870539</v>
+      </c>
+      <c r="AR82">
+        <v>0.9316760627170728</v>
+      </c>
+      <c r="AS82">
+        <v>0.8198771071955819</v>
+      </c>
+      <c r="AT82">
+        <v>0.891370108346262</v>
+      </c>
+      <c r="AU82">
+        <v>0.8929471186230213</v>
+      </c>
+    </row>
+    <row r="83" spans="1:47">
+      <c r="A83" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E83">
+        <v>0.0001594756569437178</v>
+      </c>
+      <c r="F83">
+        <v>0.0001581694038336583</v>
+      </c>
+      <c r="G83">
+        <v>2.696228827213376e-07</v>
+      </c>
+      <c r="H83">
+        <v>2.404352569788653e-07</v>
+      </c>
+      <c r="I83">
+        <v>3.691661391421929e-07</v>
+      </c>
+      <c r="J83">
+        <v>0.1950829378181257</v>
+      </c>
+      <c r="K83">
+        <v>0.0001223035306724433</v>
+      </c>
+      <c r="L83">
+        <v>0.0397444837495987</v>
+      </c>
+      <c r="S83">
+        <v>0.000123400974684884</v>
+      </c>
+      <c r="U83">
+        <v>8.980770859650147e-07</v>
+      </c>
+      <c r="Z83">
+        <v>1.012671377077257e-05</v>
+      </c>
+      <c r="AB83">
+        <v>2.626878657276302e-06</v>
+      </c>
+      <c r="AC83">
+        <v>7.660705914537687e-06</v>
+      </c>
+      <c r="AG83">
+        <v>9.180617071844407e-07</v>
+      </c>
+      <c r="AK83">
+        <v>0.569688375183625</v>
+      </c>
+      <c r="AL83">
+        <v>1.237710562466232e-06</v>
+      </c>
+      <c r="AO83">
+        <v>1.107833184050744e-06</v>
+      </c>
+      <c r="AP83">
+        <v>1.435032066669349e-06</v>
+      </c>
+      <c r="AR83">
+        <v>1.266129729964644e-06</v>
+      </c>
+      <c r="AS83">
+        <v>0.0003304430591424184</v>
+      </c>
+      <c r="AT83">
+        <v>1.870175774007635e-05</v>
+      </c>
+      <c r="AU83">
+        <v>1.719129709095265e-05</v>
+      </c>
+    </row>
+    <row r="84" spans="1:47">
+      <c r="A84" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E84">
+        <v>-0.964680502166129</v>
+      </c>
+      <c r="F84">
+        <v>-0.9647761440113382</v>
+      </c>
+      <c r="G84">
+        <v>-0.994776486451189</v>
+      </c>
+      <c r="H84">
+        <v>-0.9945384345445003</v>
+      </c>
+      <c r="I84">
+        <v>0.9919175777667472</v>
+      </c>
+      <c r="J84">
+        <v>-0.6695539713425196</v>
+      </c>
+      <c r="K84">
+        <v>0.9818513537771673</v>
+      </c>
+      <c r="L84">
+        <v>-0.720458601172738</v>
+      </c>
+      <c r="S84">
+        <v>0.9787553718813219</v>
+      </c>
+      <c r="T84">
+        <v>0.4094064143793392</v>
+      </c>
+      <c r="U84">
+        <v>-0.9996899170876515</v>
+      </c>
+      <c r="Z84">
+        <v>-0.9893815928604165</v>
+      </c>
+      <c r="AB84">
+        <v>-0.9718788490954746</v>
+      </c>
+      <c r="AC84">
+        <v>0.9972174599661124</v>
+      </c>
+      <c r="AG84">
+        <v>-0.979260491837546</v>
+      </c>
+      <c r="AL84">
+        <v>-0.9998689975779734</v>
+      </c>
+      <c r="AS84">
+        <v>0.970261262471557</v>
+      </c>
+      <c r="AT84">
+        <v>0.9951310768939062</v>
+      </c>
+      <c r="AU84">
+        <v>0.9954704585901654</v>
+      </c>
+    </row>
+    <row r="85" spans="1:47">
+      <c r="A85" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E85">
+        <v>2.597047070945085e-08</v>
+      </c>
+      <c r="F85">
+        <v>2.555667419705371e-08</v>
+      </c>
+      <c r="G85">
+        <v>2.900028011997064e-13</v>
+      </c>
+      <c r="H85">
+        <v>3.787099302464676e-13</v>
+      </c>
+      <c r="I85">
+        <v>3.955555556105263e-12</v>
+      </c>
+      <c r="J85">
+        <v>0.008811052386175832</v>
+      </c>
+      <c r="K85">
+        <v>4.961434411714112e-10</v>
+      </c>
+      <c r="L85">
+        <v>0.003654127078296707</v>
+      </c>
+      <c r="S85">
+        <v>1.268040086426675e-09</v>
+      </c>
+      <c r="T85">
+        <v>0.1460379498156021</v>
+      </c>
+      <c r="U85">
+        <v>1.282538506227064e-20</v>
+      </c>
+      <c r="Z85">
+        <v>2.022766524124326e-11</v>
+      </c>
+      <c r="AB85">
+        <v>6.720083065204615e-09</v>
+      </c>
+      <c r="AC85">
+        <v>6.661155801814871e-15</v>
+      </c>
+      <c r="AG85">
+        <v>1.098760113184138e-09</v>
+      </c>
+      <c r="AL85">
+        <v>7.295348281689383e-23</v>
+      </c>
+      <c r="AS85">
+        <v>9.366743078135128e-09</v>
+      </c>
+      <c r="AT85">
+        <v>1.903504830163771e-13</v>
+      </c>
+      <c r="AU85">
+        <v>1.234804824110967e-13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:47">
+      <c r="A86" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E86">
+        <v>-0.9649876370909113</v>
+      </c>
+      <c r="F86">
+        <v>-0.9650154695232822</v>
+      </c>
+      <c r="G86">
+        <v>-0.9500586971963415</v>
+      </c>
+      <c r="H86">
+        <v>-0.9492829241946323</v>
+      </c>
+      <c r="I86">
+        <v>0.9424132511913441</v>
+      </c>
+      <c r="J86">
+        <v>-0.7985155775400633</v>
+      </c>
+      <c r="K86">
+        <v>0.9910859339364714</v>
+      </c>
+      <c r="L86">
+        <v>-0.7595112930784133</v>
+      </c>
+      <c r="S86">
+        <v>0.9860145987614661</v>
+      </c>
+      <c r="T86">
+        <v>0.6174966890432009</v>
+      </c>
+      <c r="U86">
+        <v>-0.9660922503179232</v>
+      </c>
+      <c r="Z86">
+        <v>-0.9634412187937369</v>
+      </c>
+      <c r="AB86">
+        <v>-0.9198476032180166</v>
+      </c>
+      <c r="AC86">
+        <v>0.9805657223591038</v>
+      </c>
+      <c r="AG86">
+        <v>-0.9257260655252241</v>
+      </c>
+      <c r="AK86">
+        <v>-0.2105981001291002</v>
+      </c>
+      <c r="AL86">
+        <v>-0.9688266322594458</v>
+      </c>
+      <c r="AT86">
+        <v>0.9886378126392158</v>
+      </c>
+      <c r="AU86">
+        <v>0.9881300974397672</v>
+      </c>
+    </row>
+    <row r="87" spans="1:47">
+      <c r="A87" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E87">
+        <v>2.466102103425247e-08</v>
+      </c>
+      <c r="F87">
+        <v>2.454511581580226e-08</v>
+      </c>
+      <c r="G87">
+        <v>2.010541935347581e-07</v>
+      </c>
+      <c r="H87">
+        <v>2.20162163172289e-07</v>
+      </c>
+      <c r="I87">
+        <v>4.64751857171163e-07</v>
+      </c>
+      <c r="J87">
+        <v>0.0006161137994023915</v>
+      </c>
+      <c r="K87">
+        <v>7.10619017868371e-12</v>
+      </c>
+      <c r="L87">
+        <v>0.001625849367615025</v>
+      </c>
+      <c r="S87">
+        <v>1.048311777323642e-10</v>
+      </c>
+      <c r="T87">
+        <v>0.01862570363252863</v>
+      </c>
+      <c r="U87">
+        <v>2.039475085780874e-08</v>
+      </c>
+      <c r="Z87">
+        <v>3.185467312648293e-08</v>
+      </c>
+      <c r="AB87">
+        <v>3.215161056582704e-06</v>
+      </c>
+      <c r="AC87">
+        <v>7.460139084308903e-10</v>
+      </c>
+      <c r="AG87">
+        <v>2.062354399339056e-06</v>
+      </c>
+      <c r="AK87">
+        <v>0.4698724228423912</v>
+      </c>
+      <c r="AL87">
+        <v>1.238809494142306e-08</v>
+      </c>
+      <c r="AT87">
+        <v>3.031558904880354e-11</v>
+      </c>
+      <c r="AU87">
+        <v>3.936430565915172e-11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:47">
+      <c r="A88" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B88">
+        <v>0.2245417606743193</v>
+      </c>
+      <c r="C88">
+        <v>0.9928850730814189</v>
+      </c>
+      <c r="D88">
+        <v>0.9928826309899331</v>
+      </c>
+      <c r="E88">
+        <v>0.865804449494835</v>
+      </c>
+      <c r="F88">
+        <v>0.866019422276562</v>
+      </c>
+      <c r="G88">
+        <v>0.9618890014337335</v>
+      </c>
+      <c r="H88">
+        <v>0.9627479256097693</v>
+      </c>
+      <c r="I88">
+        <v>-0.9588567426477231</v>
+      </c>
+      <c r="J88">
+        <v>0.4129522114839434</v>
+      </c>
+      <c r="K88">
+        <v>-0.874573847031118</v>
+      </c>
+      <c r="L88">
+        <v>0.5807392538345345</v>
+      </c>
+      <c r="M88">
+        <v>-0.947284385093176</v>
+      </c>
+      <c r="N88">
+        <v>0.4632147291962463</v>
+      </c>
+      <c r="O88">
+        <v>-0.9554812629558295</v>
+      </c>
+      <c r="P88">
+        <v>-0.9261802709138277</v>
+      </c>
+      <c r="Q88">
+        <v>-0.9368659572443497</v>
+      </c>
+      <c r="R88">
+        <v>-0.9208407641045051</v>
+      </c>
+      <c r="S88">
+        <v>-0.8740451399303674</v>
+      </c>
+      <c r="T88">
+        <v>-0.1116670058481608</v>
+      </c>
+      <c r="U88">
+        <v>0.9522126552566614</v>
+      </c>
+      <c r="V88">
+        <v>-0.9649374776418472</v>
+      </c>
+      <c r="W88">
+        <v>-0.9868557335554309</v>
+      </c>
+      <c r="X88">
+        <v>0.9276786594128398</v>
+      </c>
+      <c r="Y88">
+        <v>0.9144320824174222</v>
+      </c>
+      <c r="Z88">
+        <v>0.9218102816613807</v>
+      </c>
+      <c r="AA88">
+        <v>0.936531267242025</v>
+      </c>
+      <c r="AB88">
+        <v>0.9366168173913219</v>
+      </c>
+      <c r="AC88">
+        <v>-0.9269727662999893</v>
+      </c>
+      <c r="AD88">
+        <v>0.9436232601400489</v>
+      </c>
+      <c r="AE88">
+        <v>0.9436309309931425</v>
+      </c>
+      <c r="AF88">
+        <v>0.9568847192643889</v>
+      </c>
+      <c r="AG88">
+        <v>0.9487168987176076</v>
+      </c>
+      <c r="AH88">
+        <v>0.983910308929413</v>
+      </c>
+      <c r="AI88">
+        <v>-0.8553478535036211</v>
+      </c>
+      <c r="AJ88">
+        <v>-0.9096799999392964</v>
+      </c>
+      <c r="AK88">
+        <v>-0.1369917152454364</v>
+      </c>
+      <c r="AL88">
+        <v>0.9490989805703695</v>
+      </c>
+      <c r="AM88">
+        <v>0.7715347367769219</v>
+      </c>
+      <c r="AN88">
+        <v>0.9835996231825047</v>
+      </c>
+      <c r="AO88">
+        <v>-0.9502462401867081</v>
+      </c>
+      <c r="AP88">
+        <v>-0.9476251974558793</v>
+      </c>
+      <c r="AQ88">
+        <v>-0.9987047478358374</v>
+      </c>
+      <c r="AR88">
+        <v>-0.948909625470973</v>
+      </c>
+      <c r="AS88">
+        <v>-0.8476931360549047</v>
+      </c>
+      <c r="AT88">
+        <v>-0.9132265565902468</v>
+      </c>
+      <c r="AU88">
+        <v>-0.9146425093602408</v>
+      </c>
+    </row>
+    <row r="89" spans="1:47">
+      <c r="A89" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B89">
+        <v>0.4402551508696889</v>
+      </c>
+      <c r="C89">
+        <v>1.84452275811014e-12</v>
+      </c>
+      <c r="D89">
+        <v>1.848314947600532e-12</v>
+      </c>
+      <c r="E89">
+        <v>6.275373993488774e-05</v>
+      </c>
+      <c r="F89">
+        <v>6.218320291263069e-05</v>
+      </c>
+      <c r="G89">
+        <v>4.07435501494168e-08</v>
+      </c>
+      <c r="H89">
+        <v>3.560172131375527e-08</v>
+      </c>
+      <c r="I89">
+        <v>6.407409639127026e-08</v>
+      </c>
+      <c r="J89">
+        <v>0.1422357479184554</v>
+      </c>
+      <c r="K89">
+        <v>4.267128699806498e-05</v>
+      </c>
+      <c r="L89">
+        <v>0.02943128461595069</v>
+      </c>
+      <c r="M89">
+        <v>2.764106347920579e-07</v>
+      </c>
+      <c r="N89">
+        <v>0.09529768976020307</v>
+      </c>
+      <c r="O89">
+        <v>1.020827843681982e-07</v>
+      </c>
+      <c r="P89">
+        <v>1.98982419533702e-06</v>
+      </c>
+      <c r="Q89">
+        <v>7.972231865837163e-07</v>
+      </c>
+      <c r="R89">
+        <v>2.989972543414585e-06</v>
+      </c>
+      <c r="S89">
+        <v>4.370984959541291e-05</v>
+      </c>
+      <c r="T89">
+        <v>0.7039030250378715</v>
+      </c>
+      <c r="U89">
+        <v>1.550511525700781e-07</v>
+      </c>
+      <c r="V89">
+        <v>2.487105045308758e-08</v>
+      </c>
+      <c r="W89">
+        <v>7.238456713401938e-11</v>
+      </c>
+      <c r="X89">
+        <v>1.765282924826331e-06</v>
+      </c>
+      <c r="Y89">
+        <v>4.702846506844929e-06</v>
+      </c>
+      <c r="Z89">
+        <v>2.782828496507282e-06</v>
+      </c>
+      <c r="AA89">
+        <v>8.223144004800107e-07</v>
+      </c>
+      <c r="AB89">
+        <v>8.158396901245811e-07</v>
+      </c>
+      <c r="AC89">
+        <v>1.868307935220336e-06</v>
+      </c>
+      <c r="AD89">
+        <v>4.102393314606591e-07</v>
+      </c>
+      <c r="AE89">
+        <v>4.099114221710893e-07</v>
+      </c>
+      <c r="AF89">
+        <v>8.449124824945737e-08</v>
+      </c>
+      <c r="AG89">
+        <v>2.350312633674236e-07</v>
+      </c>
+      <c r="AH89">
+        <v>2.419675727617063e-10</v>
+      </c>
+      <c r="AI89">
+        <v>9.613241147304325e-05</v>
+      </c>
+      <c r="AJ89">
+        <v>6.436039607195919e-06</v>
+      </c>
+      <c r="AK89">
+        <v>0.6405005258762252</v>
+      </c>
+      <c r="AL89">
+        <v>2.249063267202178e-07</v>
+      </c>
+      <c r="AM89">
+        <v>0.00122953290019785</v>
+      </c>
+      <c r="AN89">
+        <v>2.712082553903357e-10</v>
+      </c>
+      <c r="AO89">
+        <v>1.966470213908538e-07</v>
+      </c>
+      <c r="AP89">
+        <v>2.660586089034241e-07</v>
+      </c>
+      <c r="AQ89">
+        <v>6.798486636139003e-17</v>
+      </c>
+      <c r="AR89">
+        <v>2.298780459034586e-07</v>
+      </c>
+      <c r="AS89">
+        <v>0.0001287290051966798</v>
+      </c>
+      <c r="AT89">
+        <v>5.100996231021507e-06</v>
+      </c>
+      <c r="AU89">
+        <v>4.636043059565168e-06</v>
+      </c>
+    </row>
+    <row r="90" spans="1:47">
+      <c r="A90" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E90">
+        <v>-0.975015661990281</v>
+      </c>
+      <c r="F90">
+        <v>-0.9750741714810689</v>
+      </c>
+      <c r="G90">
+        <v>-0.984187179267992</v>
+      </c>
+      <c r="H90">
+        <v>-0.9836321184053793</v>
+      </c>
+      <c r="I90">
+        <v>0.981071117827904</v>
+      </c>
+      <c r="J90">
+        <v>-0.7345976207079672</v>
+      </c>
+      <c r="K90">
+        <v>0.9946477324318996</v>
+      </c>
+      <c r="L90">
+        <v>-0.7476177225055289</v>
+      </c>
+      <c r="S90">
+        <v>0.9908861640790513</v>
+      </c>
+      <c r="T90">
+        <v>0.4949771551549719</v>
+      </c>
+      <c r="U90">
+        <v>-0.99361091673849</v>
+      </c>
+      <c r="Z90">
+        <v>-0.9892655746863878</v>
+      </c>
+      <c r="AB90">
+        <v>-0.9616643000225404</v>
+      </c>
+      <c r="AC90">
+        <v>0.9982946785973289</v>
+      </c>
+      <c r="AG90">
+        <v>-0.9675751648699517</v>
+      </c>
+      <c r="AK90">
+        <v>-0.1138541333750832</v>
+      </c>
+      <c r="AL90">
+        <v>-0.9948271530294713</v>
+      </c>
+      <c r="AU90">
+        <v>0.9999937697193878</v>
+      </c>
+    </row>
+    <row r="91" spans="1:47">
+      <c r="A91" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E91">
+        <v>3.327615359777611e-09</v>
+      </c>
+      <c r="F91">
+        <v>3.281547130963004e-09</v>
+      </c>
+      <c r="G91">
+        <v>2.18165617146715e-10</v>
+      </c>
+      <c r="H91">
+        <v>2.680187827835917e-10</v>
+      </c>
+      <c r="I91">
+        <v>6.376174861504175e-10</v>
+      </c>
+      <c r="J91">
+        <v>0.002768479892567071</v>
+      </c>
+      <c r="K91">
+        <v>3.355310114326852e-13</v>
+      </c>
+      <c r="L91">
+        <v>0.002111689774506369</v>
+      </c>
+      <c r="S91">
+        <v>8.113390829974309e-12</v>
+      </c>
+      <c r="T91">
+        <v>0.07193596855685368</v>
+      </c>
+      <c r="U91">
+        <v>9.686568012878316e-13</v>
+      </c>
+      <c r="Z91">
+        <v>2.158509103788869e-11</v>
+      </c>
+      <c r="AB91">
+        <v>4.218567371012017e-08</v>
+      </c>
+      <c r="AC91">
+        <v>3.537870212508557e-16</v>
+      </c>
+      <c r="AG91">
+        <v>1.564550137814475e-08</v>
+      </c>
+      <c r="AK91">
+        <v>0.6983493635861326</v>
+      </c>
+      <c r="AL91">
+        <v>2.735589150990886e-13</v>
+      </c>
+      <c r="AU91">
+        <v>8.443681548434786e-31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:47">
+      <c r="A92" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E92">
+        <v>-0.9748474300898941</v>
+      </c>
+      <c r="F92">
+        <v>-0.9749070829836926</v>
+      </c>
+      <c r="G92">
+        <v>-0.9847397442623</v>
+      </c>
+      <c r="H92">
+        <v>-0.9841940489014854</v>
+      </c>
+      <c r="I92">
+        <v>0.9816626996850746</v>
+      </c>
+      <c r="J92">
+        <v>-0.7325075697469827</v>
+      </c>
+      <c r="K92">
+        <v>0.994380122866041</v>
+      </c>
+      <c r="L92">
+        <v>-0.7469082962239955</v>
+      </c>
+      <c r="S92">
+        <v>0.9906325378234009</v>
+      </c>
+      <c r="T92">
+        <v>0.4919388875091374</v>
+      </c>
+      <c r="U92">
+        <v>-0.9939999328563789</v>
+      </c>
+      <c r="Z92">
+        <v>-0.9894822249789063</v>
+      </c>
+      <c r="AB92">
+        <v>-0.9622722399519582</v>
+      </c>
+      <c r="AC92">
+        <v>0.9984329995638126</v>
+      </c>
+      <c r="AG92">
+        <v>-0.9682262903657117</v>
+      </c>
+      <c r="AK92">
+        <v>-0.1116262312460615</v>
+      </c>
+      <c r="AL92">
+        <v>-0.9951785949536109</v>
+      </c>
+    </row>
+    <row r="93" spans="1:47">
+      <c r="A93" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E93">
+        <v>3.463076707609988e-09</v>
+      </c>
+      <c r="F93">
+        <v>3.414529682570077e-09</v>
+      </c>
+      <c r="G93">
+        <v>1.764487079119914e-10</v>
+      </c>
+      <c r="H93">
+        <v>2.176007857063256e-10</v>
+      </c>
+      <c r="I93">
+        <v>5.276882177649123e-10</v>
+      </c>
+      <c r="J93">
+        <v>0.002887441539385581</v>
+      </c>
+      <c r="K93">
+        <v>4.493834862755899e-13</v>
+      </c>
+      <c r="L93">
+        <v>0.002143940381007217</v>
+      </c>
+      <c r="S93">
+        <v>9.560705935455086e-12</v>
+      </c>
+      <c r="T93">
+        <v>0.07397378511815562</v>
+      </c>
+      <c r="U93">
+        <v>6.650253812068144e-13</v>
+      </c>
+      <c r="Z93">
+        <v>1.910850982842004e-11</v>
+      </c>
+      <c r="AB93">
+        <v>3.837824075665368e-08</v>
+      </c>
+      <c r="AC93">
+        <v>2.130335247824267e-16</v>
+      </c>
+      <c r="AG93">
+        <v>1.387215853809706e-08</v>
+      </c>
+      <c r="AK93">
+        <v>0.7040066932374147</v>
+      </c>
+      <c r="AL93">
+        <v>1.794909278845064e-13</v>
       </c>
     </row>
   </sheetData>
